--- a/csulb-is-601/exams/exam3/IS 601 Module 3.xlsx
+++ b/csulb-is-601/exams/exam3/IS 601 Module 3.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Archive\Spheres\BIZ\_education\Data Science\Formal\CSULB MSIS\IS 640\learning-python\csulb-is-601\homework\ch10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Archive\Spheres\BIZ\_education\Data Science\Formal\CSULB MSIS\IS 640\learning-python\csulb-is-601\exams\exam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7FF6D2-D2DB-47F3-8F60-D94437E1950B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E960FC-6976-4E4E-A95F-6DD73A41FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA8A5116-5F6B-4D16-9D61-36C317C3C722}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="753" activeTab="1" xr2:uid="{39856AD9-BEBD-4883-887C-DCC6FA625468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="4" xr2:uid="{39856AD9-BEBD-4883-887C-DCC6FA625468}"/>
   </bookViews>
   <sheets>
     <sheet name="Module 3 HW" sheetId="19" r:id="rId1"/>
-    <sheet name="Hypo Test known Sigma" sheetId="23" r:id="rId2"/>
-    <sheet name="Hypo Test unknown Sigma" sheetId="22" r:id="rId3"/>
+    <sheet name="1-sample Hypo Test known Sigma" sheetId="23" r:id="rId2"/>
+    <sheet name="1-sampleHypo Test unknown Sigma" sheetId="22" r:id="rId3"/>
     <sheet name="Type II Error" sheetId="24" r:id="rId4"/>
-    <sheet name="z-Table" sheetId="20" r:id="rId5"/>
-    <sheet name="t-Table" sheetId="21" r:id="rId6"/>
+    <sheet name="11042020 group exercise" sheetId="25" r:id="rId5"/>
+    <sheet name="z-Table" sheetId="20" r:id="rId6"/>
+    <sheet name="t-Table" sheetId="21" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_hypTest_known_sigma">'Hypo Test known Sigma'!$K$123:$P$162</definedName>
-    <definedName name="_hypTest_unknown_sigma">'Hypo Test unknown Sigma'!$K$289:$AC$339</definedName>
+    <definedName name="_hypTest_known_sigma">'1-sample Hypo Test known Sigma'!$K$123:$P$162</definedName>
+    <definedName name="_hypTest_unknown_sigma">'1-sampleHypo Test unknown Sigma'!$K$289:$AC$339</definedName>
     <definedName name="_randVar">'[1]When to use what formula'!$J$10</definedName>
     <definedName name="_success">'[1]When to use what formula'!$J$13</definedName>
     <definedName name="_t_table">'t-Table'!$A$1</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="178">
   <si>
     <t>Ex5.</t>
   </si>
@@ -455,12 +455,6 @@
     <t>It is reasonable to conclude that the mean number of customers using the self-checkout system is more than 100 per day</t>
   </si>
   <si>
-    <t>Hypo Test known Sigma</t>
-  </si>
-  <si>
-    <t>Hypo Test unknown Sigma</t>
-  </si>
-  <si>
     <t>Type II Error</t>
   </si>
   <si>
@@ -477,20 +471,139 @@
   </si>
   <si>
     <t>Ch. 10: 11, 13, 17, 19, 33, 37, 41</t>
+  </si>
+  <si>
+    <t>Hypo Test known Sigma 1-sample</t>
+  </si>
+  <si>
+    <t>Hypo Test unknown Sigma 1-sample</t>
+  </si>
+  <si>
+    <t>Step 1:</t>
+  </si>
+  <si>
+    <t>Step 2:</t>
+  </si>
+  <si>
+    <t>Step 3:</t>
+  </si>
+  <si>
+    <t>Step 4:</t>
+  </si>
+  <si>
+    <t>Ex41</t>
+  </si>
+  <si>
+    <t>Many grocery stores and large retailers such as Kroger and Walmart have installed self-checked out systems so shoppers can scan their own items and cash out themselves. How do customers like this service and how often do they use it? Listed below is the number of customers using the services for a sample of 15 days at a Walmart location.
+Is it reasonable to conclude that the mean number of customers using the self-checkout system is more than 100 per day? Use 0.05 significance level.</t>
+  </si>
+  <si>
+    <t>Population Mean (mu)</t>
+  </si>
+  <si>
+    <t>Samples(n)</t>
+  </si>
+  <si>
+    <t>Sample mean (Xbar)</t>
+  </si>
+  <si>
+    <t>Sample Standard Deviation (S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha </t>
+  </si>
+  <si>
+    <t>unknown sigma</t>
+  </si>
+  <si>
+    <t>mu &lt;= 100</t>
+  </si>
+  <si>
+    <t>mu &gt; 100</t>
+  </si>
+  <si>
+    <t>right tailed</t>
+  </si>
+  <si>
+    <t>computed t-value</t>
+  </si>
+  <si>
+    <t>&lt; p &lt;</t>
+  </si>
+  <si>
+    <t>Reject H0</t>
+  </si>
+  <si>
+    <t>It is reasonable to conclude that the mean number of customers using the self-checkout system is more than 100 per day.</t>
+  </si>
+  <si>
+    <t>p &lt; alpha</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean</t>
+  </si>
+  <si>
+    <t>t-Test: One-Sample</t>
+  </si>
+  <si>
+    <t>Excel Data Analysis Method</t>
+  </si>
+  <si>
+    <t>Data Analysis Method</t>
+  </si>
+  <si>
+    <t>self-ckout</t>
+  </si>
+  <si>
+    <t>=COUNT(B13:B27)</t>
+  </si>
+  <si>
+    <t>=AVERAGE(B13:B27)</t>
+  </si>
+  <si>
+    <t>=STDEV.S(B13:B27)</t>
+  </si>
+  <si>
+    <t>Group 5 - p-value approach</t>
+  </si>
+  <si>
+    <t>H0:</t>
+  </si>
+  <si>
+    <t>Ha:</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>=1-T.DIST(M20,M5-1,TRUE)</t>
+  </si>
+  <si>
+    <t>=(M20-M4)/(M21/SQRT(M5))</t>
+  </si>
+  <si>
+    <t>=M5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data &gt; Data Analysis &gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -532,8 +645,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +670,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -575,13 +705,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,7 +797,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,24 +810,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,8 +840,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -652,34 +853,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -688,19 +886,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -969,6 +1252,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5D87A-49AE-4C0B-9736-19EFF177F71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9216445" y="3588644"/>
+          <a:ext cx="3226426" cy="2130219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1480,45 +1812,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4041B246-1F07-42D3-8525-F84CB90D5CCE}">
-  <dimension ref="C1:D9"/>
+  <dimension ref="C1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
@@ -1526,18 +1857,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1551,9 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC6B74C-CB07-4DDA-9CF8-5466436436E1}">
   <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="1">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1575,16 +1905,16 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -1594,21 +1924,21 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="38">
         <v>60000</v>
       </c>
       <c r="P3" t="s">
@@ -1617,41 +1947,41 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>59500</v>
       </c>
       <c r="P5" t="s">
@@ -1660,21 +1990,21 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>48</v>
       </c>
       <c r="P6" t="s">
@@ -1683,53 +2013,53 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="M9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1751,7 +2081,7 @@
       <c r="N10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <f>1-O8</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -2078,7 +2408,7 @@
       <c r="N31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="41">
         <f>_xlfn.NORM.S.DIST(O30,TRUE)-0.5</f>
         <v>0.25490290632569057</v>
       </c>
@@ -2160,16 +2490,16 @@
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
       <c r="K42" s="1">
         <v>1</v>
       </c>
@@ -2179,21 +2509,21 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
       <c r="M43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O43" s="39">
+      <c r="O43" s="38">
         <v>6.8</v>
       </c>
       <c r="P43" t="s">
@@ -2202,41 +2532,41 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
       <c r="M44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="38">
         <v>1.8</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
       <c r="M45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O45" s="39">
+      <c r="O45" s="38">
         <v>6.2</v>
       </c>
       <c r="P45" t="s">
@@ -2245,21 +2575,21 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
       <c r="M46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="38">
         <v>36</v>
       </c>
       <c r="P46" t="s">
@@ -2268,53 +2598,53 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
       <c r="M47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O47" s="40"/>
+      <c r="O47" s="39"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
       <c r="M48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="39">
+      <c r="O48" s="38">
         <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
       <c r="M49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2336,7 +2666,7 @@
       <c r="N50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O50" s="41">
+      <c r="O50" s="40">
         <f>1-O48</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -2661,7 +2991,7 @@
       <c r="N71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O71" s="42">
+      <c r="O71" s="41">
         <f>_xlfn.NORM.S.DIST(O70,TRUE)-0.5</f>
         <v>0.47724986805182079</v>
       </c>
@@ -2743,16 +3073,16 @@
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
       <c r="K83" s="1">
         <v>1</v>
       </c>
@@ -2762,21 +3092,21 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
       <c r="M84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O84" s="39">
+      <c r="O84" s="38">
         <v>45000</v>
       </c>
       <c r="P84" t="s">
@@ -2785,41 +3115,41 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
       <c r="M85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O85" s="39">
+      <c r="O85" s="38">
         <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
       <c r="M86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O86" s="39">
+      <c r="O86" s="38">
         <v>45500</v>
       </c>
       <c r="P86" t="s">
@@ -2828,21 +3158,21 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
       <c r="M87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O87" s="39">
+      <c r="O87" s="38">
         <v>120</v>
       </c>
       <c r="P87" t="s">
@@ -2851,53 +3181,53 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
       <c r="M88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="40"/>
+      <c r="O88" s="39"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
       <c r="M89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="39">
+      <c r="O89" s="38">
         <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
       <c r="M90" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O90" s="39" t="s">
+      <c r="O90" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2919,7 +3249,7 @@
       <c r="N91" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O91" s="41">
+      <c r="O91" s="40">
         <f>1-O89</f>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -3257,7 +3587,7 @@
       <c r="N113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O113" s="42">
+      <c r="O113" s="41">
         <f>_xlfn.NORM.S.DIST(O112,TRUE)-0.5</f>
         <v>0.46637503058037166</v>
       </c>
@@ -3362,16 +3692,16 @@
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="50"/>
       <c r="K124" s="1">
         <v>1</v>
       </c>
@@ -3381,21 +3711,21 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
       <c r="M125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O125" s="39">
+      <c r="O125" s="38">
         <v>10</v>
       </c>
       <c r="P125" t="s">
@@ -3404,41 +3734,41 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
       <c r="M126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O126" s="39">
+      <c r="O126" s="38">
         <v>2.8</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
       <c r="M127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O127" s="39">
+      <c r="O127" s="38">
         <v>9</v>
       </c>
       <c r="P127" t="s">
@@ -3447,21 +3777,21 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
       <c r="M128" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O128" s="39">
+      <c r="O128" s="38">
         <v>50</v>
       </c>
       <c r="P128" t="s">
@@ -3470,53 +3800,53 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50"/>
       <c r="M129" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O129" s="40"/>
+      <c r="O129" s="39"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="50"/>
       <c r="M130" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O130" s="39">
+      <c r="O130" s="38">
         <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50"/>
       <c r="M131" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O131" s="39" t="s">
+      <c r="O131" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3538,7 +3868,7 @@
       <c r="N132" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O132" s="41">
+      <c r="O132" s="40">
         <f>1-O130</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -3875,7 +4205,7 @@
       <c r="N154" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O154" s="42">
+      <c r="O154" s="41">
         <f>_xlfn.NORM.S.DIST(O153,TRUE)-0.5</f>
         <v>0.49429687366704933</v>
       </c>
@@ -3989,8 +4319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE6B67-2380-4832-930E-4EB301EA776F}">
   <dimension ref="A1:AC339"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="O320" sqref="O320"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4013,17 +4344,17 @@
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -4034,22 +4365,22 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="38">
         <v>40</v>
       </c>
       <c r="P3" t="s">
@@ -4060,44 +4391,44 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="38"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="44"/>
+      <c r="AC4" s="43"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
       <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>42</v>
       </c>
       <c r="P5" t="s">
@@ -4106,22 +4437,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>28</v>
       </c>
       <c r="P6" t="s">
@@ -4132,40 +4463,40 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="39">
         <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>0.95</v>
       </c>
       <c r="AB8" s="2"/>
@@ -4173,19 +4504,19 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="M9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AB9" s="2"/>
@@ -4193,22 +4524,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
       <c r="M10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <f>1-O8</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -4219,15 +4550,15 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
       <c r="M11" s="31" t="s">
         <v>46</v>
       </c>
@@ -4244,15 +4575,15 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
       <c r="M12" s="2" t="s">
         <v>73</v>
       </c>
@@ -4266,15 +4597,15 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
       <c r="M13" s="2" t="s">
         <v>72</v>
       </c>
@@ -4472,7 +4803,7 @@
       <c r="N30" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O30" s="47">
+      <c r="O30" s="46">
         <f>ROUND(O24,3)</f>
         <v>5.04</v>
       </c>
@@ -4490,7 +4821,7 @@
       <c r="N31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="48">
+      <c r="O31" s="47">
         <f>O11</f>
         <v>27</v>
       </c>
@@ -4499,7 +4830,7 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <f>O24</f>
         <v>5.0395263067896963</v>
       </c>
@@ -4508,7 +4839,7 @@
       <c r="N32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O32" s="49">
+      <c r="O32" s="48">
         <v>0</v>
       </c>
       <c r="P32" t="s">
@@ -4571,7 +4902,7 @@
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
+      <c r="B38" s="42"/>
       <c r="K38" s="1">
         <v>5</v>
       </c>
@@ -4580,7 +4911,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B39" s="43"/>
+      <c r="B39" s="42"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="34" t="str">
@@ -4589,7 +4920,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
+      <c r="B40" s="42"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" t="s">
@@ -4597,7 +4928,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B41" s="43"/>
+      <c r="B41" s="42"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
@@ -4615,17 +4946,17 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
       <c r="K43" s="1">
         <v>1</v>
       </c>
@@ -4639,22 +4970,22 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
       <c r="M44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="38">
         <v>60000</v>
       </c>
       <c r="P44" t="s">
@@ -4667,44 +4998,44 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
       <c r="M45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O45" s="39"/>
+      <c r="O45" s="38"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="4"/>
-      <c r="AC45" s="44"/>
+      <c r="AC45" s="43"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
       <c r="M46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="38">
         <v>70000</v>
       </c>
       <c r="P46" t="s">
@@ -4713,22 +5044,22 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
       <c r="M47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O47" s="39">
+      <c r="O47" s="38">
         <v>10</v>
       </c>
       <c r="P47" t="s">
@@ -4739,40 +5070,40 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
       <c r="M48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O48" s="50">
+      <c r="O48" s="49">
         <v>10000</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
       <c r="M49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="39">
+      <c r="O49" s="38">
         <v>0.95</v>
       </c>
       <c r="AB49" s="2"/>
@@ -4780,19 +5111,19 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="M50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AB50" s="2"/>
@@ -4800,22 +5131,22 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
       <c r="M51" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="40">
         <f>1-O49</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -4826,15 +5157,15 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
       <c r="M52" s="31" t="s">
         <v>46</v>
       </c>
@@ -4851,15 +5182,15 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
       <c r="M53" s="2" t="s">
         <v>73</v>
       </c>
@@ -4873,15 +5204,15 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
       <c r="M54" s="2" t="s">
         <v>72</v>
       </c>
@@ -5079,7 +5410,7 @@
       <c r="N71" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O71" s="47">
+      <c r="O71" s="46">
         <f>ROUND(O65,3)</f>
         <v>3.1619999999999999</v>
       </c>
@@ -5097,7 +5428,7 @@
       <c r="N72" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O72" s="48">
+      <c r="O72" s="47">
         <f>O52</f>
         <v>9</v>
       </c>
@@ -5106,7 +5437,7 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="43">
+      <c r="B73" s="42">
         <f>O65</f>
         <v>3.1622776601683795</v>
       </c>
@@ -5115,7 +5446,7 @@
       <c r="N73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O73" s="49">
+      <c r="O73" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P73" t="s">
@@ -5179,7 +5510,7 @@
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B79" s="43"/>
+      <c r="B79" s="42"/>
       <c r="K79" s="1">
         <v>5</v>
       </c>
@@ -5255,17 +5586,17 @@
       <c r="A90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
       <c r="K90" s="1">
         <v>1</v>
       </c>
@@ -5287,22 +5618,22 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
       <c r="M91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O91" s="39">
+      <c r="O91" s="38">
         <v>1.4</v>
       </c>
       <c r="P91" t="s">
@@ -5327,22 +5658,22 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
       <c r="M92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O92" s="39"/>
+      <c r="O92" s="38"/>
       <c r="U92">
         <v>1.5</v>
       </c>
@@ -5356,28 +5687,28 @@
         <f>O98</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC92" s="44" t="s">
+      <c r="AC92" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
       <c r="M93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O93" s="39">
+      <c r="O93" s="38">
         <f>AVERAGE(C96:C105)</f>
         <v>1.6000000000000003</v>
       </c>
@@ -5400,7 +5731,7 @@
       <c r="N94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O94" s="39">
+      <c r="O94" s="38">
         <f>COUNT(C96:C105)</f>
         <v>10</v>
       </c>
@@ -5428,7 +5759,7 @@
       <c r="N95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O95" s="50">
+      <c r="O95" s="49">
         <f>_xlfn.STDEV.S(C96:C105)</f>
         <v>0.21602468994692456</v>
       </c>
@@ -5448,7 +5779,7 @@
       <c r="M96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="39">
+      <c r="O96" s="38">
         <v>0.95</v>
       </c>
       <c r="U96">
@@ -5470,7 +5801,7 @@
       <c r="M97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O97" s="39" t="s">
+      <c r="O97" s="38" t="s">
         <v>44</v>
       </c>
       <c r="U97">
@@ -5495,7 +5826,7 @@
       <c r="N98" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="41">
+      <c r="O98" s="40">
         <f>1-O96</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -5797,7 +6128,7 @@
       <c r="N118" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O118" s="47">
+      <c r="O118" s="46">
         <f>ROUND(O112,3)</f>
         <v>2.9279999999999999</v>
       </c>
@@ -5815,7 +6146,7 @@
       <c r="N119" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O119" s="48">
+      <c r="O119" s="47">
         <f>O99</f>
         <v>9</v>
       </c>
@@ -5824,7 +6155,7 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B120" s="43">
+      <c r="B120" s="42">
         <f>O112</f>
         <v>2.9277002188456613</v>
       </c>
@@ -5833,7 +6164,7 @@
       <c r="N120" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O120" s="49">
+      <c r="O120" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P120" t="s">
@@ -5941,7 +6272,7 @@
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B127" s="43">
+      <c r="B127" s="42">
         <f>AC96</f>
         <v>8.4099018161283654E-3</v>
       </c>
@@ -6078,17 +6409,17 @@
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="50"/>
       <c r="K137" s="1">
         <v>1</v>
       </c>
@@ -6110,22 +6441,22 @@
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="J138" s="38"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="50"/>
       <c r="M138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O138" s="39">
+      <c r="O138" s="38">
         <v>67</v>
       </c>
       <c r="P138" t="s">
@@ -6150,22 +6481,22 @@
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="50"/>
       <c r="M139" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O139" s="39"/>
+      <c r="O139" s="38"/>
       <c r="U139">
         <v>51</v>
       </c>
@@ -6179,28 +6510,28 @@
         <f>O145</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC139" s="44" t="s">
+      <c r="AC139" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="38"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="50"/>
       <c r="M140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O140" s="39">
+      <c r="O140" s="38">
         <f>AVERAGE(C143:C154)</f>
         <v>82.5</v>
       </c>
@@ -6223,7 +6554,7 @@
       <c r="N141" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O141" s="39">
+      <c r="O141" s="38">
         <f>COUNT(C143:C154)</f>
         <v>12</v>
       </c>
@@ -6251,7 +6582,7 @@
       <c r="N142" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O142" s="50">
+      <c r="O142" s="49">
         <f>_xlfn.STDEV.S(C143:C154)</f>
         <v>59.492551099811116</v>
       </c>
@@ -6271,7 +6602,7 @@
       <c r="M143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O143" s="39">
+      <c r="O143" s="38">
         <v>0.95</v>
       </c>
       <c r="U143">
@@ -6293,7 +6624,7 @@
       <c r="M144" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O144" s="39" t="s">
+      <c r="O144" s="38" t="s">
         <v>44</v>
       </c>
       <c r="U144">
@@ -6318,7 +6649,7 @@
       <c r="N145" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O145" s="41">
+      <c r="O145" s="40">
         <f>1-O143</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -6514,28 +6845,28 @@
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="38"/>
-      <c r="D156" s="38"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="38"/>
-      <c r="J156" s="38"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="50"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="38"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="38"/>
-      <c r="J157" s="38"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
       <c r="K157" s="1">
         <v>3</v>
       </c>
@@ -6642,7 +6973,7 @@
       <c r="N165" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O165" s="47">
+      <c r="O165" s="46">
         <f>ROUND(O159,3)</f>
         <v>0.90300000000000002</v>
       </c>
@@ -6661,7 +6992,7 @@
       <c r="N166" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O166" s="48">
+      <c r="O166" s="47">
         <f>O146</f>
         <v>11</v>
       </c>
@@ -6675,7 +7006,7 @@
       <c r="N167" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O167" s="49">
+      <c r="O167" s="48">
         <v>1</v>
       </c>
       <c r="P167" t="s">
@@ -6701,7 +7032,7 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B169" s="43">
+      <c r="B169" s="42">
         <f>O159</f>
         <v>0.90252601446781233</v>
       </c>
@@ -6805,7 +7136,7 @@
       </c>
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B176" s="43">
+      <c r="B176" s="42">
         <f>AC143</f>
         <v>0.19305705517763116</v>
       </c>
@@ -6935,17 +7266,17 @@
       <c r="A186" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C186" s="38"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
-      <c r="H186" s="38"/>
-      <c r="I186" s="38"/>
-      <c r="J186" s="38"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
       <c r="K186" s="1">
         <v>1</v>
       </c>
@@ -6967,22 +7298,22 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="38"/>
-      <c r="E187" s="38"/>
-      <c r="F187" s="38"/>
-      <c r="G187" s="38"/>
-      <c r="H187" s="38"/>
-      <c r="I187" s="38"/>
-      <c r="J187" s="38"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
       <c r="M187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O187" s="39">
+      <c r="O187" s="38">
         <v>8000</v>
       </c>
       <c r="P187" t="s">
@@ -7007,22 +7338,22 @@
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="38"/>
-      <c r="D188" s="38"/>
-      <c r="E188" s="38"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
-      <c r="I188" s="38"/>
-      <c r="J188" s="38"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
       <c r="M188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N188" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O188" s="39"/>
+      <c r="O188" s="38"/>
       <c r="U188">
         <v>7077</v>
       </c>
@@ -7036,28 +7367,28 @@
         <f>O194</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC188" s="44" t="s">
+      <c r="AC188" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
-      <c r="B189" s="38"/>
-      <c r="C189" s="38"/>
-      <c r="D189" s="38"/>
-      <c r="E189" s="38"/>
-      <c r="F189" s="38"/>
-      <c r="G189" s="38"/>
-      <c r="H189" s="38"/>
-      <c r="I189" s="38"/>
-      <c r="J189" s="38"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+      <c r="J189" s="50"/>
       <c r="M189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N189" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O189" s="39">
+      <c r="O189" s="38">
         <f>AVERAGE(C192:C203)</f>
         <v>7163.583333333333</v>
       </c>
@@ -7080,7 +7411,7 @@
       <c r="N190" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O190" s="39">
+      <c r="O190" s="38">
         <f>COUNT(C192:C203)</f>
         <v>12</v>
       </c>
@@ -7108,7 +7439,7 @@
       <c r="N191" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O191" s="50">
+      <c r="O191" s="49">
         <f>_xlfn.STDEV.S(C192:C203)</f>
         <v>942.3700738354346</v>
       </c>
@@ -7128,7 +7459,7 @@
       <c r="M192" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O192" s="39">
+      <c r="O192" s="38">
         <v>0.95</v>
       </c>
       <c r="U192">
@@ -7150,7 +7481,7 @@
       <c r="M193" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O193" s="39" t="s">
+      <c r="O193" s="38" t="s">
         <v>36</v>
       </c>
       <c r="U193">
@@ -7175,7 +7506,7 @@
       <c r="N194" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O194" s="41">
+      <c r="O194" s="40">
         <f>1-O192</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -7371,26 +7702,26 @@
       </c>
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B205" s="38"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="38"/>
-      <c r="E205" s="38"/>
-      <c r="F205" s="38"/>
-      <c r="G205" s="38"/>
-      <c r="H205" s="38"/>
-      <c r="I205" s="38"/>
-      <c r="J205" s="38"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
+      <c r="J205" s="50"/>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B206" s="38"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="38"/>
-      <c r="E206" s="38"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="38"/>
-      <c r="H206" s="38"/>
-      <c r="I206" s="38"/>
-      <c r="J206" s="38"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="50"/>
+      <c r="J206" s="50"/>
       <c r="K206" s="1">
         <v>3</v>
       </c>
@@ -7497,7 +7828,7 @@
       <c r="N214" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O214" s="47">
+      <c r="O214" s="46">
         <f>ROUND(O208,3)</f>
         <v>-3.0750000000000002</v>
       </c>
@@ -7516,7 +7847,7 @@
       <c r="N215" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O215" s="48">
+      <c r="O215" s="47">
         <f>O195</f>
         <v>11</v>
       </c>
@@ -7530,7 +7861,7 @@
       <c r="N216" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O216" s="46">
+      <c r="O216" s="45">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P216" t="s">
@@ -7556,7 +7887,7 @@
       <c r="R217" s="36"/>
     </row>
     <row r="218" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B218" s="43">
+      <c r="B218" s="42">
         <f>O208</f>
         <v>-3.0746225993102945</v>
       </c>
@@ -7629,7 +7960,7 @@
       </c>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B225" s="43">
+      <c r="B225" s="42">
         <f>AA192</f>
         <v>5.2861530427884924E-3</v>
       </c>
@@ -7791,17 +8122,17 @@
       <c r="A238" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B238" s="38" t="s">
+      <c r="B238" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C238" s="38"/>
-      <c r="D238" s="38"/>
-      <c r="E238" s="38"/>
-      <c r="F238" s="38"/>
-      <c r="G238" s="38"/>
-      <c r="H238" s="38"/>
-      <c r="I238" s="38"/>
-      <c r="J238" s="38"/>
+      <c r="C238" s="50"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="50"/>
+      <c r="H238" s="50"/>
+      <c r="I238" s="50"/>
+      <c r="J238" s="50"/>
       <c r="K238" s="1">
         <v>1</v>
       </c>
@@ -7823,22 +8154,22 @@
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
-      <c r="B239" s="38"/>
-      <c r="C239" s="38"/>
-      <c r="D239" s="38"/>
-      <c r="E239" s="38"/>
-      <c r="F239" s="38"/>
-      <c r="G239" s="38"/>
-      <c r="H239" s="38"/>
-      <c r="I239" s="38"/>
-      <c r="J239" s="38"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="50"/>
+      <c r="D239" s="50"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
+      <c r="G239" s="50"/>
+      <c r="H239" s="50"/>
+      <c r="I239" s="50"/>
+      <c r="J239" s="50"/>
       <c r="M239" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O239" s="39">
+      <c r="O239" s="38">
         <v>6.5</v>
       </c>
       <c r="P239" t="s">
@@ -7863,22 +8194,22 @@
     </row>
     <row r="240" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
-      <c r="B240" s="38"/>
-      <c r="C240" s="38"/>
-      <c r="D240" s="38"/>
-      <c r="E240" s="38"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="38"/>
-      <c r="H240" s="38"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="38"/>
+      <c r="B240" s="50"/>
+      <c r="C240" s="50"/>
+      <c r="D240" s="50"/>
+      <c r="E240" s="50"/>
+      <c r="F240" s="50"/>
+      <c r="G240" s="50"/>
+      <c r="H240" s="50"/>
+      <c r="I240" s="50"/>
+      <c r="J240" s="50"/>
       <c r="M240" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O240" s="39"/>
+      <c r="O240" s="38"/>
       <c r="U240">
         <v>0</v>
       </c>
@@ -7892,28 +8223,28 @@
         <f>O246</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AC240" s="44" t="s">
+      <c r="AC240" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
-      <c r="B241" s="38"/>
-      <c r="C241" s="38"/>
-      <c r="D241" s="38"/>
-      <c r="E241" s="38"/>
-      <c r="F241" s="38"/>
-      <c r="G241" s="38"/>
-      <c r="H241" s="38"/>
-      <c r="I241" s="38"/>
-      <c r="J241" s="38"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="50"/>
+      <c r="D241" s="50"/>
+      <c r="E241" s="50"/>
+      <c r="F241" s="50"/>
+      <c r="G241" s="50"/>
+      <c r="H241" s="50"/>
+      <c r="I241" s="50"/>
+      <c r="J241" s="50"/>
       <c r="M241" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O241" s="39">
+      <c r="O241" s="38">
         <f>AVERAGE(C244:C255)</f>
         <v>5.166666666666667</v>
       </c>
@@ -7936,7 +8267,7 @@
       <c r="N242" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O242" s="39">
+      <c r="O242" s="38">
         <f>COUNT(C244:C255)</f>
         <v>12</v>
       </c>
@@ -7964,7 +8295,7 @@
       <c r="N243" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O243" s="50">
+      <c r="O243" s="49">
         <f>_xlfn.STDEV.S(C244:C255)</f>
         <v>3.1574826950748234</v>
       </c>
@@ -7984,7 +8315,7 @@
       <c r="M244" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O244" s="39">
+      <c r="O244" s="38">
         <v>0.99</v>
       </c>
       <c r="U244">
@@ -8006,7 +8337,7 @@
       <c r="M245" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O245" s="39" t="s">
+      <c r="O245" s="38" t="s">
         <v>36</v>
       </c>
       <c r="U245">
@@ -8031,7 +8362,7 @@
       <c r="N246" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O246" s="41">
+      <c r="O246" s="40">
         <f>1-O244</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -8227,28 +8558,28 @@
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B257" s="38" t="s">
+      <c r="B257" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C257" s="38"/>
-      <c r="D257" s="38"/>
-      <c r="E257" s="38"/>
-      <c r="F257" s="38"/>
-      <c r="G257" s="38"/>
-      <c r="H257" s="38"/>
-      <c r="I257" s="38"/>
-      <c r="J257" s="38"/>
+      <c r="C257" s="50"/>
+      <c r="D257" s="50"/>
+      <c r="E257" s="50"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
+      <c r="H257" s="50"/>
+      <c r="I257" s="50"/>
+      <c r="J257" s="50"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B258" s="38"/>
-      <c r="C258" s="38"/>
-      <c r="D258" s="38"/>
-      <c r="E258" s="38"/>
-      <c r="F258" s="38"/>
-      <c r="G258" s="38"/>
-      <c r="H258" s="38"/>
-      <c r="I258" s="38"/>
-      <c r="J258" s="38"/>
+      <c r="B258" s="50"/>
+      <c r="C258" s="50"/>
+      <c r="D258" s="50"/>
+      <c r="E258" s="50"/>
+      <c r="F258" s="50"/>
+      <c r="G258" s="50"/>
+      <c r="H258" s="50"/>
+      <c r="I258" s="50"/>
+      <c r="J258" s="50"/>
       <c r="K258" s="1">
         <v>3</v>
       </c>
@@ -8355,7 +8686,7 @@
       <c r="N266" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O266" s="47">
+      <c r="O266" s="46">
         <f>ROUND(O260,3)</f>
         <v>-1.4630000000000001</v>
       </c>
@@ -8374,7 +8705,7 @@
       <c r="N267" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O267" s="48">
+      <c r="O267" s="47">
         <f>O247</f>
         <v>11</v>
       </c>
@@ -8388,7 +8719,7 @@
       <c r="N268" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O268" s="46">
+      <c r="O268" s="45">
         <v>0.05</v>
       </c>
       <c r="P268" t="s">
@@ -8414,7 +8745,7 @@
       <c r="R269" s="36"/>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B270" s="43">
+      <c r="B270" s="42">
         <f>O260</f>
         <v>-1.4628115494414617</v>
       </c>
@@ -8487,7 +8818,7 @@
       </c>
     </row>
     <row r="277" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B277" s="43">
+      <c r="B277" s="42">
         <f>AA244</f>
         <v>8.5748432053813883E-2</v>
       </c>
@@ -8649,17 +8980,17 @@
       <c r="A290" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B290" s="38" t="s">
+      <c r="B290" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C290" s="38"/>
-      <c r="D290" s="38"/>
-      <c r="E290" s="38"/>
-      <c r="F290" s="38"/>
-      <c r="G290" s="38"/>
-      <c r="H290" s="38"/>
-      <c r="I290" s="38"/>
-      <c r="J290" s="38"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="50"/>
+      <c r="G290" s="50"/>
+      <c r="H290" s="50"/>
+      <c r="I290" s="50"/>
+      <c r="J290" s="50"/>
       <c r="K290" s="1">
         <v>1</v>
       </c>
@@ -8681,22 +9012,22 @@
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
-      <c r="B291" s="38"/>
-      <c r="C291" s="38"/>
-      <c r="D291" s="38"/>
-      <c r="E291" s="38"/>
-      <c r="F291" s="38"/>
-      <c r="G291" s="38"/>
-      <c r="H291" s="38"/>
-      <c r="I291" s="38"/>
-      <c r="J291" s="38"/>
+      <c r="B291" s="50"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="50"/>
+      <c r="E291" s="50"/>
+      <c r="F291" s="50"/>
+      <c r="G291" s="50"/>
+      <c r="H291" s="50"/>
+      <c r="I291" s="50"/>
+      <c r="J291" s="50"/>
       <c r="M291" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N291" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O291" s="39">
+      <c r="O291" s="38">
         <v>100</v>
       </c>
       <c r="P291" t="s">
@@ -8721,22 +9052,22 @@
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
-      <c r="B292" s="38"/>
-      <c r="C292" s="38"/>
-      <c r="D292" s="38"/>
-      <c r="E292" s="38"/>
-      <c r="F292" s="38"/>
-      <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="38"/>
+      <c r="B292" s="50"/>
+      <c r="C292" s="50"/>
+      <c r="D292" s="50"/>
+      <c r="E292" s="50"/>
+      <c r="F292" s="50"/>
+      <c r="G292" s="50"/>
+      <c r="H292" s="50"/>
+      <c r="I292" s="50"/>
+      <c r="J292" s="50"/>
       <c r="M292" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N292" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O292" s="39"/>
+      <c r="O292" s="38"/>
       <c r="U292">
         <v>120</v>
       </c>
@@ -8750,28 +9081,28 @@
         <f>O298</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC292" s="44" t="s">
+      <c r="AC292" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
-      <c r="B293" s="38"/>
-      <c r="C293" s="38"/>
-      <c r="D293" s="38"/>
-      <c r="E293" s="38"/>
-      <c r="F293" s="38"/>
-      <c r="G293" s="38"/>
-      <c r="H293" s="38"/>
-      <c r="I293" s="38"/>
-      <c r="J293" s="38"/>
+      <c r="B293" s="50"/>
+      <c r="C293" s="50"/>
+      <c r="D293" s="50"/>
+      <c r="E293" s="50"/>
+      <c r="F293" s="50"/>
+      <c r="G293" s="50"/>
+      <c r="H293" s="50"/>
+      <c r="I293" s="50"/>
+      <c r="J293" s="50"/>
       <c r="M293" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N293" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O293" s="39">
+      <c r="O293" s="38">
         <f>AVERAGE(C296:C310)</f>
         <v>109.4</v>
       </c>
@@ -8794,7 +9125,7 @@
       <c r="N294" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O294" s="39">
+      <c r="O294" s="38">
         <f>COUNT(C296:C310)</f>
         <v>15</v>
       </c>
@@ -8822,7 +9153,7 @@
       <c r="N295" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O295" s="50">
+      <c r="O295" s="49">
         <f>_xlfn.STDEV.S(C296:C310)</f>
         <v>9.9627879058596278</v>
       </c>
@@ -8842,7 +9173,7 @@
       <c r="M296" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O296" s="39">
+      <c r="O296" s="38">
         <v>0.95</v>
       </c>
       <c r="U296">
@@ -8864,7 +9195,7 @@
       <c r="M297" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O297" s="39" t="s">
+      <c r="O297" s="38" t="s">
         <v>44</v>
       </c>
       <c r="U297">
@@ -8889,7 +9220,7 @@
       <c r="N298" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O298" s="41">
+      <c r="O298" s="40">
         <f>1-O296</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -9133,17 +9464,17 @@
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B313" s="38" t="s">
+      <c r="B313" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C313" s="38"/>
-      <c r="D313" s="38"/>
-      <c r="E313" s="38"/>
-      <c r="F313" s="38"/>
-      <c r="G313" s="38"/>
-      <c r="H313" s="38"/>
-      <c r="I313" s="38"/>
-      <c r="J313" s="38"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="50"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
+      <c r="H313" s="50"/>
+      <c r="I313" s="50"/>
+      <c r="J313" s="50"/>
       <c r="M313" s="2" t="str">
         <f>ROUND(O312,4)&amp;O307</f>
         <v>3.6542 &gt; 1.761</v>
@@ -9154,15 +9485,15 @@
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B314" s="38"/>
-      <c r="C314" s="38"/>
-      <c r="D314" s="38"/>
-      <c r="E314" s="38"/>
-      <c r="F314" s="38"/>
-      <c r="G314" s="38"/>
-      <c r="H314" s="38"/>
-      <c r="I314" s="38"/>
-      <c r="J314" s="38"/>
+      <c r="B314" s="50"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="50"/>
+      <c r="E314" s="50"/>
+      <c r="F314" s="50"/>
+      <c r="G314" s="50"/>
+      <c r="H314" s="50"/>
+      <c r="I314" s="50"/>
+      <c r="J314" s="50"/>
       <c r="M314" s="2" t="str">
         <f>IF(O297&lt;&gt;"both","",ROUND(O312,4)&amp;O308)</f>
         <v/>
@@ -9216,11 +9547,10 @@
       <c r="N318" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="O318" s="47">
+      <c r="O318" s="46">
         <f>ROUND(O312,3)</f>
         <v>3.6539999999999999</v>
       </c>
-      <c r="P318" s="9"/>
       <c r="Q318" s="36"/>
       <c r="R318" s="36"/>
     </row>
@@ -9239,7 +9569,7 @@
       <c r="N319" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O319" s="48">
+      <c r="O319" s="47">
         <f>O299</f>
         <v>14</v>
       </c>
@@ -9253,7 +9583,7 @@
       <c r="N320" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O320" s="46">
+      <c r="O320" s="45">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P320" t="s">
@@ -9297,26 +9627,33 @@
         <v>Reject the null hypothesis if p-value is &lt; 0.05</v>
       </c>
       <c r="N323" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O323" s="85">
+        <f>1-_xlfn.T.DIST(O318,O294-1,TRUE)</f>
+        <v>1.302064927946156E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N324" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O323" s="25">
+      <c r="O324" s="25">
         <f>O298</f>
         <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="324" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="N324" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O324" s="2" t="b">
-        <f>O321&lt;=O323</f>
-        <v>1</v>
       </c>
     </row>
     <row r="325" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="N325" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O325" s="2" t="b">
+        <f>O323&lt;=O324</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B326" s="2" t="s">
@@ -9344,7 +9681,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="34" t="str">
-        <f>IFERROR(IF(O324,"Reject H0 ("&amp;O300&amp;")","Fail to reject H0 ("&amp;O300&amp;")"),"")</f>
+        <f>IFERROR(IF(O325,"Reject H0 ("&amp;O300&amp;")","Fail to reject H0 ("&amp;O300&amp;")"),"")</f>
         <v>Reject H0 (mu &lt;= 100)</v>
       </c>
       <c r="V327" t="s">
@@ -9436,7 +9773,7 @@
       <c r="X333" s="28"/>
     </row>
     <row r="334" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B334" s="43">
+      <c r="B334" s="42">
         <f>AA296</f>
         <v>1.3015427061343187E-3</v>
       </c>
@@ -9521,6 +9858,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B90:J93"/>
+    <mergeCell ref="B2:J13"/>
+    <mergeCell ref="B43:J54"/>
+    <mergeCell ref="B137:J140"/>
     <mergeCell ref="B313:J314"/>
     <mergeCell ref="B156:J157"/>
     <mergeCell ref="B186:J189"/>
@@ -9528,10 +9869,6 @@
     <mergeCell ref="B238:J241"/>
     <mergeCell ref="B257:J258"/>
     <mergeCell ref="B290:J293"/>
-    <mergeCell ref="B90:J93"/>
-    <mergeCell ref="B2:J13"/>
-    <mergeCell ref="B43:J54"/>
-    <mergeCell ref="B137:J140"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O50 O9 O97 O144 O193 O245 O297" xr:uid="{9ACDF434-4C30-4F1A-AC24-1569F7A428C3}">
@@ -9548,7 +9885,6 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9562,13 +9898,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9745,13 +10081,799 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21CE9CB-BEC3-4586-AB12-4373DD12DDCD}">
+  <dimension ref="A1:W30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="Q3" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="92">
+        <v>100</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="57"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="92">
+        <v>15</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56">
+        <v>120</v>
+      </c>
+      <c r="S6" s="56">
+        <v>0</v>
+      </c>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+    </row>
+    <row r="7" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56">
+        <v>108</v>
+      </c>
+      <c r="S7" s="56">
+        <v>0</v>
+      </c>
+      <c r="T7" s="56"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56">
+        <v>120</v>
+      </c>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="28">
+        <v>109.4</v>
+      </c>
+      <c r="W8" s="74"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56">
+        <v>114</v>
+      </c>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="28">
+        <v>99.257142857142867</v>
+      </c>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="10" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56">
+        <v>118</v>
+      </c>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="28">
+        <v>15</v>
+      </c>
+      <c r="W10" s="74"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56">
+        <v>91</v>
+      </c>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="V11" s="28">
+        <v>100</v>
+      </c>
+      <c r="W11" s="74"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="81">
+        <f>M6</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56">
+        <v>118</v>
+      </c>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="28">
+        <v>14</v>
+      </c>
+      <c r="W12" s="74"/>
+    </row>
+    <row r="13" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56">
+        <v>92</v>
+      </c>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="28">
+        <v>3.6542023977984592</v>
+      </c>
+      <c r="W13" s="74"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56">
+        <v>104</v>
+      </c>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="86">
+        <v>1.3015427061343187E-3</v>
+      </c>
+      <c r="W14" s="74"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>120</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56">
+        <v>104</v>
+      </c>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="28">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="W15" s="74"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="88">
+        <f>AVERAGE(B13:B27)</f>
+        <v>109.4</v>
+      </c>
+      <c r="N16" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="57"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56">
+        <v>112</v>
+      </c>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69" t="str">
+        <f>ROUND(V14,4)&amp;" &lt; "&amp;ROUND(M6,4)</f>
+        <v>0.0013 &lt; 0.05</v>
+      </c>
+      <c r="W16" s="74"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="89">
+        <f>_xlfn.STDEV.S(B13:B27)</f>
+        <v>9.9627879058596278</v>
+      </c>
+      <c r="N17" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="57"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56">
+        <v>97</v>
+      </c>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="W17" s="74"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="89">
+        <f>(M16-M4)/(M17/SQRT(M5))</f>
+        <v>3.6542023977984592</v>
+      </c>
+      <c r="N18" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="57"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56">
+        <v>118</v>
+      </c>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="W18" s="57"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="81">
+        <f>M5-1</f>
+        <v>14</v>
+      </c>
+      <c r="N19" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" s="57"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56">
+        <v>108</v>
+      </c>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="W19" s="57"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="81">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O20" s="57"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56">
+        <v>117</v>
+      </c>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+    </row>
+    <row r="21" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="90">
+        <f>1-_xlfn.T.DIST(M18,M5-1,TRUE)</f>
+        <v>1.3015427061343621E-3</v>
+      </c>
+      <c r="N21" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="57"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="60"/>
+    </row>
+    <row r="22" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>112</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>97</v>
+      </c>
+      <c r="J24" s="61"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="56"/>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>118</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="56"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>108</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="56"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>117</v>
+      </c>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="56"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="56"/>
+    </row>
+    <row r="29" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="66"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="56"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:I10"/>
+    <mergeCell ref="L25:N29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE672EF-43A3-4F8D-B7B5-88643A557C4D}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11291,12 +12413,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB15AAC-DFF7-4683-BD98-0F2B1504CD5B}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/csulb-is-601/exams/exam3/IS 601 Module 3.xlsx
+++ b/csulb-is-601/exams/exam3/IS 601 Module 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Archive\Spheres\BIZ\_education\Data Science\Formal\CSULB MSIS\IS 640\learning-python\csulb-is-601\exams\exam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71FDDA-05F9-4334-974C-C149C378A719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A38AB-BA5D-44CC-993E-27053A7F4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="922" firstSheet="5" activeTab="10" xr2:uid="{39856AD9-BEBD-4883-887C-DCC6FA625468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="922" firstSheet="5" activeTab="11" xr2:uid="{39856AD9-BEBD-4883-887C-DCC6FA625468}"/>
   </bookViews>
   <sheets>
     <sheet name="One-Sample Test of Hypothesis" sheetId="32" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <sheet name="2-sampleHypoTest UnequalSigma" sheetId="28" r:id="rId9"/>
     <sheet name="2-sampleHypoTest DependentSampl" sheetId="27" r:id="rId10"/>
     <sheet name="Module 3 HW" sheetId="19" r:id="rId11"/>
-    <sheet name="z-Table" sheetId="20" r:id="rId12"/>
-    <sheet name="t-Table" sheetId="21" r:id="rId13"/>
-    <sheet name="Addl Resources" sheetId="31" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId12"/>
+    <sheet name="z-Table" sheetId="20" r:id="rId13"/>
+    <sheet name="t-Table" sheetId="21" r:id="rId14"/>
+    <sheet name="Addl Resources" sheetId="31" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_hypTest_known_sigma">'1-sample Hypo Test known Sigma'!$K$123:$P$162</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="375">
   <si>
     <t>Ex5.</t>
   </si>
@@ -1137,6 +1138,120 @@
   <si>
     <t>Ch. 11: 19, 37, 41</t>
   </si>
+  <si>
+    <t>Ex 7</t>
+  </si>
+  <si>
+    <t>The following are four observations collected from each of three treatments. Test the hypothesis that the treatment means are equal. Use the .05 significance level.</t>
+  </si>
+  <si>
+    <t>Treatment 1</t>
+  </si>
+  <si>
+    <t>Treatment 2</t>
+  </si>
+  <si>
+    <t>Treatment 3</t>
+  </si>
+  <si>
+    <t>State the null and the alternate hypotheses.</t>
+  </si>
+  <si>
+    <t>What is the decision rule?</t>
+  </si>
+  <si>
+    <t>Compute SST, SSE, and SS total.</t>
+  </si>
+  <si>
+    <t>Complete an ANOVA table.</t>
+  </si>
+  <si>
+    <t>State your decision regarding the null hypothesis</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mu1 = mu2 = mu3</t>
+  </si>
+  <si>
+    <t>the means are not all equal</t>
+  </si>
+  <si>
+    <t>f-value</t>
+  </si>
+  <si>
+    <t>Treatments (k)</t>
+  </si>
+  <si>
+    <t>Samples (n)</t>
+  </si>
+  <si>
+    <t>df numerator</t>
+  </si>
+  <si>
+    <t>df denominator</t>
+  </si>
+  <si>
+    <t>=F.INV.RT(P16,U4,U5)</t>
+  </si>
+  <si>
+    <t>k - 1</t>
+  </si>
+  <si>
+    <t>n - k</t>
+  </si>
+  <si>
+    <t>ANOVA Table</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>Sum of Squares</t>
+  </si>
+  <si>
+    <t>Mean Square</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SST / df = MST</t>
+  </si>
+  <si>
+    <t>SSE / df = MSE</t>
+  </si>
+  <si>
+    <t>MST / MSE</t>
+  </si>
+  <si>
+    <t>x-bar_g</t>
+  </si>
 </sst>
 </file>
 
@@ -1149,7 +1264,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1364,7 +1479,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1556,15 +1671,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1576,9 +1682,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1597,9 +1700,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1608,14 +1708,11 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1632,9 +1729,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1660,6 +1754,42 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1668,43 +1798,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1744,6 +1838,66 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
@@ -2441,16 +2595,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F5CE835-27DC-4DD3-A0CF-7BC82ACF7475}" name="Table1" displayName="Table1" ref="C32:H44" totalsRowShown="0">
   <autoFilter ref="C32:H44" xr:uid="{3419891E-10EF-49F3-AED3-FDBDB54029F3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2114531D-0A4A-451C-A7C6-6DE2077A2232}" name="Salesperson" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{DD6BAE36-E7F3-4407-A6DF-EBE3CD0B65C7}" name="Before" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{648307A8-08C0-47CF-B59F-E98029E32DB2}" name="After" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9C6BB7FC-0EE5-4D03-A296-8838BD1EBE52}" name="Difference (d) *" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{2114531D-0A4A-451C-A7C6-6DE2077A2232}" name="Salesperson" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{DD6BAE36-E7F3-4407-A6DF-EBE3CD0B65C7}" name="Before" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{648307A8-08C0-47CF-B59F-E98029E32DB2}" name="After" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9C6BB7FC-0EE5-4D03-A296-8838BD1EBE52}" name="Difference (d) *" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2FECAF87-C4E8-4264-88B2-8A1F8A89AC21}" name="(d - dbar)" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{2FECAF87-C4E8-4264-88B2-8A1F8A89AC21}" name="(d - dbar)" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{251251C6-AA86-4050-A11B-97AC26FF5EE0}" name="(d - dbar)^2" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{251251C6-AA86-4050-A11B-97AC26FF5EE0}" name="(d - dbar)^2" dataDxfId="24">
       <calculatedColumnFormula>Table1[[#This Row],[(d - dbar)]]^2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2462,16 +2616,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C85397A-94B8-43C9-BF81-BE11CB7029A8}" name="Table13" displayName="Table13" ref="C77:H85" totalsRowShown="0">
   <autoFilter ref="C77:H85" xr:uid="{B069B546-8149-45A7-8590-18BE12B64318}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7859ADC6-5533-4BE3-ACE6-2C9D55981DFF}" name="Employee" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9E848B4C-619D-4BDA-BAF8-DAFF195E0A6B}" name="Before" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DFEE676F-32D4-409B-803F-4D8FF56AFB4F}" name="After" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1671D01F-A01E-4833-B41E-0062E585E790}" name="Difference (d) *" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{7859ADC6-5533-4BE3-ACE6-2C9D55981DFF}" name="Employee" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{9E848B4C-619D-4BDA-BAF8-DAFF195E0A6B}" name="Before" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{DFEE676F-32D4-409B-803F-4D8FF56AFB4F}" name="After" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{1671D01F-A01E-4833-B41E-0062E585E790}" name="Difference (d) *" dataDxfId="20">
       <calculatedColumnFormula>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9F37F6E0-1B4D-4010-ADCE-85DC2EEEB319}" name="(d - dbar)" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{9F37F6E0-1B4D-4010-ADCE-85DC2EEEB319}" name="(d - dbar)" dataDxfId="19">
       <calculatedColumnFormula>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AF5640CA-CBFE-42BC-8534-B607B07D9B9B}" name="(d - dbar)^2" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{AF5640CA-CBFE-42BC-8534-B607B07D9B9B}" name="(d - dbar)^2" dataDxfId="18">
       <calculatedColumnFormula>Table13[[#This Row],[(d - dbar)]]^2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2483,20 +2637,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F66F3E25-D15D-44F9-BFF4-7947FD9FC903}" name="Table134" displayName="Table134" ref="C118:H126" totalsRowShown="0">
   <autoFilter ref="C118:H126" xr:uid="{F98EA5F8-7DB9-4453-8711-5C7CFA10CA7B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E611A12-5CDE-4A54-BE46-AD1389691183}" name="Employee" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{39C881DE-1A66-45E3-B2F6-B9E8703BDF8E}" name="Before" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{78B30629-6D8A-4D85-8600-817FEB1FE156}" name="After" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{170DE623-453A-4E80-B5FE-FC12CE0F3E85}" name="Difference (d) *" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{6E611A12-5CDE-4A54-BE46-AD1389691183}" name="Employee" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{39C881DE-1A66-45E3-B2F6-B9E8703BDF8E}" name="Before" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{78B30629-6D8A-4D85-8600-817FEB1FE156}" name="After" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{170DE623-453A-4E80-B5FE-FC12CE0F3E85}" name="Difference (d) *" dataDxfId="14">
       <calculatedColumnFormula>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1465D3F8-2AFE-4135-A9B4-B9CEA987C5AC}" name="(d - dbar)" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{1465D3F8-2AFE-4135-A9B4-B9CEA987C5AC}" name="(d - dbar)" dataDxfId="13">
       <calculatedColumnFormula>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3895BAF7-CBE2-4B41-A26B-6116A51B233E}" name="(d - dbar)^2" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{3895BAF7-CBE2-4B41-A26B-6116A51B233E}" name="(d - dbar)^2" dataDxfId="12">
       <calculatedColumnFormula>Table134[[#This Row],[(d - dbar)]]^2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7D45D446-A306-483E-94E1-40F000AB69E4}" name="Table4" displayName="Table4" ref="C11:E15" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C11:E15" xr:uid="{93C8463E-20ED-4801-B9D2-4CCB41AD8057}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CE3F1275-9EF4-4D46-B1A5-28B0A59FF520}" name="Treatment 1" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AEBABF17-523C-40D9-B6D0-DD87074B81CC}" name="Treatment 2" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{175A9D73-263D-403D-B7ED-2EFDA714B002}" name="Treatment 3" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2812,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCF5DE7-0BD4-4C99-9735-9D800F3B91EF}">
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2839,31 +3009,31 @@
       <c r="A2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="K2" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="K3" s="95" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="K3" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L3" s="62" t="s">
@@ -2873,7 +3043,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S3" s="62" t="s">
@@ -2882,14 +3052,14 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="N4" s="60"/>
@@ -2910,15 +3080,15 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74" t="s">
@@ -2943,25 +3113,25 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="K6" s="107"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="O6" s="114">
+      <c r="O6" s="108">
         <f>AVERAGE(D33:D44)</f>
         <v>428.33333333333331</v>
       </c>
-      <c r="P6" s="114">
+      <c r="P6" s="108">
         <f>AVERAGE(E33:E44)</f>
         <v>454.25</v>
       </c>
@@ -2979,25 +3149,25 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="K7" s="107"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O7" s="108">
         <f>_xlfn.STDEV.S(D33:D44)</f>
         <v>120.06008596708661</v>
       </c>
-      <c r="P7" s="114">
+      <c r="P7" s="108">
         <f>_xlfn.STDEV.S(E33:E44)</f>
         <v>131.44865917916394</v>
       </c>
@@ -3012,19 +3182,19 @@
         <f>V6^2</f>
         <v>2073300.0108506943</v>
       </c>
-      <c r="W7" s="101"/>
+      <c r="W7" s="97"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="K8" s="107"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="s">
@@ -3033,7 +3203,7 @@
       <c r="O8" s="88">
         <v>0.05</v>
       </c>
-      <c r="P8" s="108">
+      <c r="P8" s="103">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -3045,18 +3215,18 @@
         <v>11</v>
       </c>
       <c r="V8" s="43"/>
-      <c r="W8" s="101"/>
+      <c r="W8" s="97"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
@@ -3078,15 +3248,15 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="K10" s="95" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="K10" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L10" s="62" t="s">
@@ -3108,24 +3278,24 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="119" t="s">
+      <c r="L11" s="112"/>
+      <c r="M11" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="120" t="s">
+      <c r="N11" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="116"/>
       <c r="U11" s="17" t="s">
         <v>210</v>
       </c>
@@ -3136,54 +3306,54 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="119" t="s">
+      <c r="L12" s="112"/>
+      <c r="M12" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="120" t="s">
+      <c r="N12" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="O12" s="121"/>
-      <c r="P12" s="122"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="116"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="L13" s="123" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="L13" s="134" t="s">
         <v>264</v>
       </c>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="R14" s="95" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="R14" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S14" s="62" t="s">
@@ -3195,15 +3365,15 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="K15" s="95" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="K15" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L15" s="62" t="s">
@@ -3218,26 +3388,26 @@
       <c r="T15" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U15" s="112">
+      <c r="U15" s="106">
         <f>O6-P6</f>
         <v>-25.916666666666686</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="102">
+      <c r="P16" s="98">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -3254,15 +3424,15 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="12" customHeight="1">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="K17" s="96"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
@@ -3284,9 +3454,9 @@
     </row>
     <row r="18" spans="2:23">
       <c r="B18" s="1"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="K18" s="95" t="s">
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="K18" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L18" s="62" t="s">
@@ -3312,15 +3482,15 @@
       <c r="E19" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="118">
         <f>SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *])</f>
         <v>-25.916666666666668</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="O19" s="100" t="s">
+      <c r="M19" s="95"/>
+      <c r="O19" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="99" t="b">
+      <c r="P19" s="95" t="b">
         <f>AND(O7&lt;&gt;"",P7&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -3333,15 +3503,15 @@
       <c r="E20" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="118">
         <f>SQRT(H31/U8)</f>
         <v>40.790948936639303</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="K20" s="62"/>
-      <c r="M20" s="99"/>
-      <c r="O20" s="100" t="s">
+      <c r="M20" s="95"/>
+      <c r="O20" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P20" s="84" t="b">
@@ -3354,12 +3524,12 @@
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="O21" s="100" t="s">
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="O21" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="99" t="b">
+      <c r="P21" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S21" s="62" t="str">
@@ -3368,21 +3538,21 @@
       </c>
     </row>
     <row r="23" spans="2:23">
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
       <c r="O23" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="94" t="str">
+      <c r="P23" s="91" t="str">
         <f>IF(AND(P19,P21,P20),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -3390,13 +3560,13 @@
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
       <c r="S24" t="s">
         <v>25</v>
       </c>
@@ -3406,98 +3576,98 @@
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
       <c r="S25" s="62" t="str">
         <f>IF(T24&lt;P16,"Reject H0", "Fail to Reject H0")</f>
         <v>Reject H0</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="S26" s="111" t="str">
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="S26" s="133" t="str">
         <f>"We can"&amp;IF(T24&lt;P16,"","not")&amp;" conclude that "&amp;L13&amp;"."</f>
         <v>We can conclude that there was a significant increase in the typical salesperson's weekly income.</v>
       </c>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
     </row>
     <row r="31" spans="2:23">
-      <c r="F31" s="93">
+      <c r="F31" s="90">
         <f>SUM(Table1[Difference (d) *])</f>
         <v>-311</v>
       </c>
-      <c r="G31" s="116">
+      <c r="G31" s="110">
         <f>SUM(Table1[(d - dbar)])</f>
         <v>0</v>
       </c>
-      <c r="H31" s="116">
+      <c r="H31" s="110">
         <f>SUM(Table1[(d - dbar)^2])</f>
         <v>18302.916666666668</v>
       </c>
       <c r="R31" s="53"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="93"/>
-      <c r="C32" s="115" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="F32" s="124" t="s">
+      <c r="F32" s="117" t="s">
         <v>280</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3506,10 +3676,10 @@
       <c r="H32" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I32" s="93"/>
+      <c r="I32" s="90"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="B33" s="93"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="5" t="s">
         <v>252</v>
       </c>
@@ -3523,18 +3693,18 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-20</v>
       </c>
-      <c r="G33" s="109">
+      <c r="G33" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>5.9166666666666679</v>
       </c>
-      <c r="H33" s="109">
+      <c r="H33" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>35.006944444444457</v>
       </c>
-      <c r="I33" s="93"/>
+      <c r="I33" s="90"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="B34" s="93"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="5" t="s">
         <v>253</v>
       </c>
@@ -3548,18 +3718,18 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>5</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>30.916666666666668</v>
       </c>
-      <c r="H34" s="109">
+      <c r="H34" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>955.84027777777783</v>
       </c>
-      <c r="I34" s="93"/>
+      <c r="I34" s="90"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="B35" s="93"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="5" t="s">
         <v>254</v>
       </c>
@@ -3573,15 +3743,15 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-54</v>
       </c>
-      <c r="G35" s="109">
+      <c r="G35" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>-28.083333333333332</v>
       </c>
-      <c r="H35" s="109">
+      <c r="H35" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>788.67361111111109</v>
       </c>
-      <c r="I35" s="93"/>
+      <c r="I35" s="90"/>
     </row>
     <row r="36" spans="1:19">
       <c r="C36" s="5" t="s">
@@ -3597,11 +3767,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>0</v>
       </c>
-      <c r="G36" s="109">
+      <c r="G36" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>25.916666666666668</v>
       </c>
-      <c r="H36" s="109">
+      <c r="H36" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>671.6736111111112</v>
       </c>
@@ -3620,11 +3790,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>0</v>
       </c>
-      <c r="G37" s="109">
+      <c r="G37" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>25.916666666666668</v>
       </c>
-      <c r="H37" s="109">
+      <c r="H37" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>671.6736111111112</v>
       </c>
@@ -3643,11 +3813,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-98</v>
       </c>
-      <c r="G38" s="109">
+      <c r="G38" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>-72.083333333333329</v>
       </c>
-      <c r="H38" s="109">
+      <c r="H38" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>5196.0069444444434</v>
       </c>
@@ -3666,11 +3836,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-6</v>
       </c>
-      <c r="G39" s="109">
+      <c r="G39" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>19.916666666666668</v>
       </c>
-      <c r="H39" s="109">
+      <c r="H39" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>396.67361111111114</v>
       </c>
@@ -3689,11 +3859,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>0</v>
       </c>
-      <c r="G40" s="109">
+      <c r="G40" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>25.916666666666668</v>
       </c>
-      <c r="H40" s="109">
+      <c r="H40" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>671.6736111111112</v>
       </c>
@@ -3712,11 +3882,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-5</v>
       </c>
-      <c r="G41" s="109">
+      <c r="G41" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>20.916666666666668</v>
       </c>
-      <c r="H41" s="109">
+      <c r="H41" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>437.50694444444451</v>
       </c>
@@ -3735,11 +3905,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>0</v>
       </c>
-      <c r="G42" s="109">
+      <c r="G42" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>25.916666666666668</v>
       </c>
-      <c r="H42" s="109">
+      <c r="H42" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>671.6736111111112</v>
       </c>
@@ -3758,11 +3928,11 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-19</v>
       </c>
-      <c r="G43" s="109">
+      <c r="G43" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>6.9166666666666679</v>
       </c>
-      <c r="H43" s="109">
+      <c r="H43" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>47.840277777777793</v>
       </c>
@@ -3781,17 +3951,17 @@
         <f>Table1[[#This Row],[Before]]-Table1[[#This Row],[After]]</f>
         <v>-114</v>
       </c>
-      <c r="G44" s="109">
+      <c r="G44" s="104">
         <f>Table1[[#This Row],[Difference (d) *]]-(SUM(Table1[Difference (d) *])/COUNT(Table1[Difference (d) *]))</f>
         <v>-88.083333333333329</v>
       </c>
-      <c r="H44" s="109">
+      <c r="H44" s="104">
         <f>Table1[[#This Row],[(d - dbar)]]^2</f>
         <v>7758.6736111111104</v>
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="Q45" s="105"/>
+      <c r="Q45" s="101"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
@@ -3805,31 +3975,31 @@
       <c r="A47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
       <c r="K47" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="K48" s="95" t="s">
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="K48" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L48" s="62" t="s">
@@ -3839,7 +4009,7 @@
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
       <c r="P48" s="53"/>
-      <c r="R48" s="95" t="s">
+      <c r="R48" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S48" s="62" t="s">
@@ -3848,14 +4018,14 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="1"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
       <c r="K49" s="62"/>
       <c r="L49" s="62"/>
       <c r="N49" s="60"/>
@@ -3876,25 +4046,25 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="1"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="K50" s="107"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="K50" s="102"/>
       <c r="L50" s="73"/>
       <c r="M50" s="73"/>
       <c r="N50" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="O50" s="131">
+      <c r="O50" s="124">
         <f>COUNT(D78:D85)</f>
         <v>8</v>
       </c>
-      <c r="P50" s="131">
+      <c r="P50" s="124">
         <f>COUNT(E78:E85)</f>
         <v>8</v>
       </c>
@@ -3909,25 +4079,25 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="1"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="K51" s="107"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="K51" s="102"/>
       <c r="L51" s="73"/>
       <c r="M51" s="73"/>
       <c r="N51" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="O51" s="126">
+      <c r="O51" s="119">
         <f>AVERAGE(D78:D85)</f>
         <v>5.5</v>
       </c>
-      <c r="P51" s="126">
+      <c r="P51" s="119">
         <f>AVERAGE(E78:E85)</f>
         <v>3.75</v>
       </c>
@@ -3945,25 +4115,25 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="1"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="K52" s="107"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="K52" s="102"/>
       <c r="L52" s="73"/>
       <c r="M52" s="73"/>
       <c r="N52" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O52" s="126">
+      <c r="O52" s="119">
         <f>_xlfn.STDEV.S(D78:D85)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="P52" s="126">
+      <c r="P52" s="119">
         <f>_xlfn.STDEV.S(E78:E85)</f>
         <v>2.0528725518857018</v>
       </c>
@@ -3978,19 +4148,19 @@
         <f>V51^2</f>
         <v>0.27750318877551011</v>
       </c>
-      <c r="W52" s="101"/>
+      <c r="W52" s="97"/>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="1"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="K53" s="107"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="K53" s="102"/>
       <c r="L53" s="73"/>
       <c r="M53" s="73"/>
       <c r="N53" s="74" t="s">
@@ -3999,7 +4169,7 @@
       <c r="O53" s="88">
         <v>0.05</v>
       </c>
-      <c r="P53" s="108">
+      <c r="P53" s="103">
         <f>O53</f>
         <v>0.05</v>
       </c>
@@ -4011,18 +4181,18 @@
         <v>7</v>
       </c>
       <c r="V53" s="43"/>
-      <c r="W53" s="101"/>
+      <c r="W53" s="97"/>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="1"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
@@ -4044,15 +4214,15 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="1"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="K55" s="95" t="s">
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="K55" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L55" s="62" t="s">
@@ -4074,24 +4244,24 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="1"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
       <c r="K56" s="53"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="119" t="s">
+      <c r="L56" s="112"/>
+      <c r="M56" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="120" t="s">
+      <c r="N56" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="O56" s="121"/>
-      <c r="P56" s="122"/>
+      <c r="O56" s="115"/>
+      <c r="P56" s="116"/>
       <c r="U56" s="17" t="s">
         <v>210</v>
       </c>
@@ -4102,54 +4272,54 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="1"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
       <c r="K57" s="62"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="119" t="s">
+      <c r="L57" s="112"/>
+      <c r="M57" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="N57" s="120" t="s">
+      <c r="N57" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="O57" s="121"/>
-      <c r="P57" s="122"/>
+      <c r="O57" s="115"/>
+      <c r="P57" s="116"/>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="1"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="L58" s="123" t="s">
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="L58" s="134" t="s">
         <v>323</v>
       </c>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
+      <c r="M58" s="134"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="134"/>
+      <c r="P58" s="134"/>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="1"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="R59" s="95" t="s">
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="R59" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S59" s="62" t="s">
@@ -4161,15 +4331,15 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="1"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="K60" s="95" t="s">
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="K60" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L60" s="62" t="s">
@@ -4184,26 +4354,26 @@
       <c r="T60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U60" s="112">
+      <c r="U60" s="106">
         <f>O51-P51</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="61" spans="1:23">
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
       <c r="K61" s="53"/>
       <c r="L61" s="53"/>
-      <c r="O61" s="97" t="s">
+      <c r="O61" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P61" s="102">
+      <c r="P61" s="98">
         <f>O53</f>
         <v>0.05</v>
       </c>
@@ -4220,15 +4390,15 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="K62" s="96"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="K62" s="93"/>
       <c r="L62" s="53"/>
       <c r="M62" s="53"/>
       <c r="N62" s="53"/>
@@ -4250,9 +4420,9 @@
     </row>
     <row r="63" spans="1:23">
       <c r="B63" s="1"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="K63" s="95" t="s">
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="K63" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L63" s="62" t="s">
@@ -4278,15 +4448,15 @@
       <c r="E64" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F64" s="125">
+      <c r="F64" s="118">
         <f>SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *])</f>
         <v>1.75</v>
       </c>
-      <c r="M64" s="99"/>
-      <c r="O64" s="100" t="s">
+      <c r="M64" s="95"/>
+      <c r="O64" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P64" s="99" t="b">
+      <c r="P64" s="95" t="b">
         <f>AND(O52&lt;&gt;"",P52&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -4299,15 +4469,15 @@
       <c r="E65" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F65" s="125">
+      <c r="F65" s="118">
         <f>SQRT(H76/U53)</f>
         <v>2.9154759474226504</v>
       </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
       <c r="K65" s="62"/>
-      <c r="M65" s="99"/>
-      <c r="O65" s="100" t="s">
+      <c r="M65" s="95"/>
+      <c r="O65" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P65" s="84" t="b">
@@ -4320,15 +4490,15 @@
       </c>
     </row>
     <row r="66" spans="2:23">
-      <c r="D66" s="117" t="s">
+      <c r="D66" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="G66" s="93"/>
-      <c r="H66" s="93"/>
-      <c r="O66" s="100" t="s">
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="O66" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P66" s="99" t="b">
+      <c r="P66" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S66" s="62" t="str">
@@ -4337,26 +4507,26 @@
       </c>
     </row>
     <row r="67" spans="2:23">
-      <c r="D67" s="117" t="s">
+      <c r="D67" s="111" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="68" spans="2:23">
-      <c r="D68" s="117" t="s">
+      <c r="D68" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
       <c r="O68" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P68" s="94" t="str">
+      <c r="P68" s="91" t="str">
         <f>IF(AND(P64,P66,P65),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R68" s="95" t="s">
+      <c r="R68" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -4364,13 +4534,13 @@
       </c>
     </row>
     <row r="69" spans="2:23">
-      <c r="D69" s="117" t="s">
+      <c r="D69" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
       <c r="S69" t="s">
         <v>25</v>
       </c>
@@ -4380,100 +4550,100 @@
       </c>
     </row>
     <row r="70" spans="2:23">
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
       <c r="S70" s="62" t="str">
         <f>IF(T69&lt;P61,"Reject H0", "Fail to Reject H0")</f>
         <v>Fail to Reject H0</v>
       </c>
     </row>
     <row r="71" spans="2:23">
-      <c r="D71" s="117" t="s">
+      <c r="D71" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="S71" s="111" t="str">
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="S71" s="133" t="str">
         <f>"We can"&amp;IF(T69&lt;P61,"","not")&amp;" conclude that "&amp;L58&amp;"."</f>
         <v>We cannot conclude that the number of absences has declined.</v>
       </c>
-      <c r="T71" s="111"/>
-      <c r="U71" s="111"/>
-      <c r="V71" s="111"/>
-      <c r="W71" s="111"/>
+      <c r="T71" s="133"/>
+      <c r="U71" s="133"/>
+      <c r="V71" s="133"/>
+      <c r="W71" s="133"/>
     </row>
     <row r="72" spans="2:23">
-      <c r="D72" s="117" t="s">
+      <c r="D72" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="S72" s="111"/>
-      <c r="T72" s="111"/>
-      <c r="U72" s="111"/>
-      <c r="V72" s="111"/>
-      <c r="W72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="S72" s="133"/>
+      <c r="T72" s="133"/>
+      <c r="U72" s="133"/>
+      <c r="V72" s="133"/>
+      <c r="W72" s="133"/>
     </row>
     <row r="73" spans="2:23">
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="111"/>
-      <c r="V73" s="111"/>
-      <c r="W73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="S73" s="133"/>
+      <c r="T73" s="133"/>
+      <c r="U73" s="133"/>
+      <c r="V73" s="133"/>
+      <c r="W73" s="133"/>
     </row>
     <row r="74" spans="2:23">
-      <c r="D74" s="117" t="s">
+      <c r="D74" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="111"/>
-      <c r="V74" s="111"/>
-      <c r="W74" s="111"/>
+      <c r="S74" s="133"/>
+      <c r="T74" s="133"/>
+      <c r="U74" s="133"/>
+      <c r="V74" s="133"/>
+      <c r="W74" s="133"/>
     </row>
     <row r="75" spans="2:23">
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="111" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" spans="2:23">
-      <c r="F76" s="93">
+      <c r="F76" s="90">
         <f>SUM(Table13[Difference (d) *])</f>
         <v>14</v>
       </c>
-      <c r="G76" s="116">
+      <c r="G76" s="110">
         <f>SUM(Table13[(d - dbar)])</f>
         <v>0</v>
       </c>
-      <c r="H76" s="116">
+      <c r="H76" s="110">
         <f>SUM(Table13[(d - dbar)^2])</f>
         <v>59.5</v>
       </c>
       <c r="R76" s="53"/>
     </row>
     <row r="77" spans="2:23">
-      <c r="B77" s="93"/>
-      <c r="C77" s="115" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="115" t="s">
+      <c r="D77" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="E77" s="115" t="s">
+      <c r="E77" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="F77" s="124" t="s">
+      <c r="F77" s="117" t="s">
         <v>280</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -4482,10 +4652,10 @@
       <c r="H77" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I77" s="93"/>
+      <c r="I77" s="90"/>
     </row>
     <row r="78" spans="2:23">
-      <c r="B78" s="93"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="5" t="s">
         <v>315</v>
       </c>
@@ -4499,18 +4669,18 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>1</v>
       </c>
-      <c r="G78" s="109">
+      <c r="G78" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>-0.75</v>
       </c>
-      <c r="H78" s="109">
+      <c r="H78" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>0.5625</v>
       </c>
-      <c r="I78" s="93"/>
+      <c r="I78" s="90"/>
     </row>
     <row r="79" spans="2:23">
-      <c r="B79" s="93"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="5" t="s">
         <v>316</v>
       </c>
@@ -4524,18 +4694,18 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>4</v>
       </c>
-      <c r="G79" s="109">
+      <c r="G79" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>2.25</v>
       </c>
-      <c r="H79" s="109">
+      <c r="H79" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>5.0625</v>
       </c>
-      <c r="I79" s="93"/>
+      <c r="I79" s="90"/>
     </row>
     <row r="80" spans="2:23">
-      <c r="B80" s="93"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="5" t="s">
         <v>317</v>
       </c>
@@ -4549,15 +4719,15 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>6</v>
       </c>
-      <c r="G80" s="109">
+      <c r="G80" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>4.25</v>
       </c>
-      <c r="H80" s="109">
+      <c r="H80" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>18.0625</v>
       </c>
-      <c r="I80" s="93"/>
+      <c r="I80" s="90"/>
     </row>
     <row r="81" spans="1:23">
       <c r="C81" s="5" t="s">
@@ -4573,11 +4743,11 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>4</v>
       </c>
-      <c r="G81" s="109">
+      <c r="G81" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>2.25</v>
       </c>
-      <c r="H81" s="109">
+      <c r="H81" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>5.0625</v>
       </c>
@@ -4596,11 +4766,11 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>1</v>
       </c>
-      <c r="G82" s="109">
+      <c r="G82" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>-0.75</v>
       </c>
-      <c r="H82" s="109">
+      <c r="H82" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>0.5625</v>
       </c>
@@ -4619,11 +4789,11 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>-3</v>
       </c>
-      <c r="G83" s="109">
+      <c r="G83" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>-4.75</v>
       </c>
-      <c r="H83" s="109">
+      <c r="H83" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>22.5625</v>
       </c>
@@ -4642,11 +4812,11 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>2</v>
       </c>
-      <c r="G84" s="109">
+      <c r="G84" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="109">
+      <c r="H84" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>6.25E-2</v>
       </c>
@@ -4665,11 +4835,11 @@
         <f>Table13[[#This Row],[Before]]-Table13[[#This Row],[After]]</f>
         <v>-1</v>
       </c>
-      <c r="G85" s="109">
+      <c r="G85" s="104">
         <f>Table13[[#This Row],[Difference (d) *]]-(SUM(Table13[Difference (d) *])/COUNT(Table13[Difference (d) *]))</f>
         <v>-2.75</v>
       </c>
-      <c r="H85" s="109">
+      <c r="H85" s="104">
         <f>Table13[[#This Row],[(d - dbar)]]^2</f>
         <v>7.5625</v>
       </c>
@@ -4686,31 +4856,31 @@
       <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="89" t="s">
+      <c r="B88" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
       <c r="K88" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="1"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="K89" s="95" t="s">
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="K89" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L89" s="62" t="s">
@@ -4720,7 +4890,7 @@
       <c r="N89" s="53"/>
       <c r="O89" s="53"/>
       <c r="P89" s="53"/>
-      <c r="R89" s="95" t="s">
+      <c r="R89" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S89" s="62" t="s">
@@ -4729,14 +4899,14 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="1"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
       <c r="K90" s="62"/>
       <c r="L90" s="62"/>
       <c r="N90" s="60"/>
@@ -4757,25 +4927,25 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="1"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="K91" s="107"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="128"/>
+      <c r="K91" s="102"/>
       <c r="L91" s="73"/>
       <c r="M91" s="73"/>
       <c r="N91" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="O91" s="131">
+      <c r="O91" s="124">
         <f>COUNT(D119:D126)</f>
         <v>8</v>
       </c>
-      <c r="P91" s="131">
+      <c r="P91" s="124">
         <f>COUNT(E119:E126)</f>
         <v>8</v>
       </c>
@@ -4790,25 +4960,25 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="1"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="K92" s="107"/>
+      <c r="B92" s="128"/>
+      <c r="C92" s="128"/>
+      <c r="D92" s="128"/>
+      <c r="E92" s="128"/>
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="128"/>
+      <c r="K92" s="102"/>
       <c r="L92" s="73"/>
       <c r="M92" s="73"/>
       <c r="N92" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="O92" s="126">
+      <c r="O92" s="119">
         <f>AVERAGE(D119:D126)</f>
         <v>8.7000000000000011</v>
       </c>
-      <c r="P92" s="126">
+      <c r="P92" s="119">
         <f>AVERAGE(E119:E126)</f>
         <v>5.5875000000000004</v>
       </c>
@@ -4826,25 +4996,25 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="1"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="K93" s="107"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="128"/>
+      <c r="D93" s="128"/>
+      <c r="E93" s="128"/>
+      <c r="F93" s="128"/>
+      <c r="G93" s="128"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="128"/>
+      <c r="K93" s="102"/>
       <c r="L93" s="73"/>
       <c r="M93" s="73"/>
       <c r="N93" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O93" s="126">
+      <c r="O93" s="119">
         <f>_xlfn.STDEV.S(D119:D126)</f>
         <v>2.1606877212062416</v>
       </c>
-      <c r="P93" s="126">
+      <c r="P93" s="119">
         <f>_xlfn.STDEV.S(E119:E126)</f>
         <v>2.6084683518987037</v>
       </c>
@@ -4859,19 +5029,19 @@
         <f>V92^2</f>
         <v>0.72337303142936793</v>
       </c>
-      <c r="W93" s="101"/>
+      <c r="W93" s="97"/>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="1"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="K94" s="107"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="K94" s="102"/>
       <c r="L94" s="73"/>
       <c r="M94" s="73"/>
       <c r="N94" s="74" t="s">
@@ -4880,7 +5050,7 @@
       <c r="O94" s="88">
         <v>0.05</v>
       </c>
-      <c r="P94" s="108">
+      <c r="P94" s="103">
         <f>O94</f>
         <v>0.05</v>
       </c>
@@ -4892,20 +5062,20 @@
         <v>7</v>
       </c>
       <c r="V94" s="43"/>
-      <c r="W94" s="101"/>
+      <c r="W94" s="97"/>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="1"/>
-      <c r="B95" s="89" t="s">
+      <c r="B95" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
+      <c r="C95" s="128"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
+      <c r="F95" s="128"/>
+      <c r="G95" s="128"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="128"/>
       <c r="K95" s="53"/>
       <c r="L95" s="53"/>
       <c r="M95" s="53"/>
@@ -4927,15 +5097,15 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="1"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="K96" s="95" t="s">
+      <c r="B96" s="128"/>
+      <c r="C96" s="128"/>
+      <c r="D96" s="128"/>
+      <c r="E96" s="128"/>
+      <c r="F96" s="128"/>
+      <c r="G96" s="128"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="128"/>
+      <c r="K96" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L96" s="62" t="s">
@@ -4957,24 +5127,24 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="1"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="93"/>
-      <c r="I97" s="93"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="90"/>
       <c r="K97" s="53"/>
-      <c r="L97" s="118"/>
-      <c r="M97" s="119" t="s">
+      <c r="L97" s="112"/>
+      <c r="M97" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="N97" s="120" t="s">
+      <c r="N97" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="O97" s="121"/>
-      <c r="P97" s="122"/>
+      <c r="O97" s="115"/>
+      <c r="P97" s="116"/>
       <c r="U97" s="17" t="s">
         <v>210</v>
       </c>
@@ -4985,54 +5155,54 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="1"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="93"/>
-      <c r="I98" s="93"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="90"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="90"/>
       <c r="K98" s="62"/>
-      <c r="L98" s="118"/>
-      <c r="M98" s="119" t="s">
+      <c r="L98" s="112"/>
+      <c r="M98" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="N98" s="120" t="s">
+      <c r="N98" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="O98" s="121"/>
-      <c r="P98" s="122"/>
+      <c r="O98" s="115"/>
+      <c r="P98" s="116"/>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="1"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="93"/>
-      <c r="I99" s="93"/>
-      <c r="L99" s="123" t="s">
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="90"/>
+      <c r="L99" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="M99" s="123"/>
-      <c r="N99" s="123"/>
-      <c r="O99" s="123"/>
-      <c r="P99" s="123"/>
+      <c r="M99" s="134"/>
+      <c r="N99" s="134"/>
+      <c r="O99" s="134"/>
+      <c r="P99" s="134"/>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="1"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="R100" s="95" t="s">
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="90"/>
+      <c r="R100" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S100" s="62" t="s">
@@ -5044,15 +5214,15 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="1"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="K101" s="95" t="s">
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="K101" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L101" s="62" t="s">
@@ -5067,26 +5237,26 @@
       <c r="T101" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U101" s="112">
+      <c r="U101" s="106">
         <f>O92-P92</f>
         <v>3.1125000000000007</v>
       </c>
     </row>
     <row r="102" spans="1:23">
-      <c r="B102" s="93"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="90"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="90"/>
       <c r="K102" s="53"/>
       <c r="L102" s="53"/>
-      <c r="O102" s="97" t="s">
+      <c r="O102" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P102" s="102">
+      <c r="P102" s="98">
         <f>O94</f>
         <v>0.05</v>
       </c>
@@ -5103,15 +5273,15 @@
       </c>
     </row>
     <row r="103" spans="1:23">
-      <c r="B103" s="93"/>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="93"/>
-      <c r="H103" s="93"/>
-      <c r="I103" s="93"/>
-      <c r="K103" s="96"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
+      <c r="H103" s="90"/>
+      <c r="I103" s="90"/>
+      <c r="K103" s="93"/>
       <c r="L103" s="53"/>
       <c r="M103" s="53"/>
       <c r="N103" s="53"/>
@@ -5133,9 +5303,9 @@
     </row>
     <row r="104" spans="1:23">
       <c r="B104" s="1"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="K104" s="95" t="s">
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="K104" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L104" s="62" t="s">
@@ -5161,15 +5331,15 @@
       <c r="E105" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F105" s="125">
+      <c r="F105" s="118">
         <f>SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *])</f>
         <v>3.1124999999999998</v>
       </c>
-      <c r="M105" s="99"/>
-      <c r="O105" s="100" t="s">
+      <c r="M105" s="95"/>
+      <c r="O105" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P105" s="99" t="b">
+      <c r="P105" s="95" t="b">
         <f>AND(O93&lt;&gt;"",P93&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -5182,15 +5352,15 @@
       <c r="E106" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F106" s="125">
+      <c r="F106" s="118">
         <f>SQRT(H117/U94)</f>
         <v>2.9112773337979525</v>
       </c>
-      <c r="G106" s="93"/>
-      <c r="H106" s="93"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
       <c r="K106" s="62"/>
-      <c r="M106" s="99"/>
-      <c r="O106" s="100" t="s">
+      <c r="M106" s="95"/>
+      <c r="O106" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P106" s="84" t="b">
@@ -5203,15 +5373,15 @@
       </c>
     </row>
     <row r="107" spans="1:23">
-      <c r="D107" s="117" t="s">
+      <c r="D107" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="G107" s="93"/>
-      <c r="H107" s="93"/>
-      <c r="O107" s="100" t="s">
+      <c r="G107" s="90"/>
+      <c r="H107" s="90"/>
+      <c r="O107" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P107" s="99" t="b">
+      <c r="P107" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S107" s="62" t="str">
@@ -5220,26 +5390,26 @@
       </c>
     </row>
     <row r="108" spans="1:23">
-      <c r="D108" s="117" t="s">
+      <c r="D108" s="111" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:23">
-      <c r="D109" s="117" t="s">
+      <c r="D109" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="E109" s="117"/>
-      <c r="F109" s="117"/>
-      <c r="G109" s="117"/>
-      <c r="H109" s="117"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
       <c r="O109" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P109" s="94" t="str">
+      <c r="P109" s="91" t="str">
         <f>IF(AND(P105,P107,P106),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R109" s="95" t="s">
+      <c r="R109" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S109" s="1" t="s">
@@ -5247,13 +5417,13 @@
       </c>
     </row>
     <row r="110" spans="1:23">
-      <c r="D110" s="117" t="s">
+      <c r="D110" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="E110" s="117"/>
-      <c r="F110" s="117"/>
-      <c r="G110" s="117"/>
-      <c r="H110" s="117"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
       <c r="S110" t="s">
         <v>25</v>
       </c>
@@ -5263,100 +5433,100 @@
       </c>
     </row>
     <row r="111" spans="1:23">
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="117"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="111"/>
       <c r="S111" s="62" t="str">
         <f>IF(T110&lt;P102,"Reject H0", "Fail to Reject H0")</f>
         <v>Reject H0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
-      <c r="D112" s="117" t="s">
+      <c r="D112" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="E112" s="117"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="117"/>
-      <c r="S112" s="111" t="str">
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="111"/>
+      <c r="S112" s="133" t="str">
         <f>"We can"&amp;IF(T110&lt;P102,"","not")&amp;" conclude that "&amp;L99&amp;"."</f>
         <v>We can conclude that the contamination measurements are lower after use of the new soap.</v>
       </c>
-      <c r="T112" s="111"/>
-      <c r="U112" s="111"/>
-      <c r="V112" s="111"/>
-      <c r="W112" s="111"/>
+      <c r="T112" s="133"/>
+      <c r="U112" s="133"/>
+      <c r="V112" s="133"/>
+      <c r="W112" s="133"/>
     </row>
     <row r="113" spans="2:23">
-      <c r="D113" s="117" t="s">
+      <c r="D113" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="E113" s="117"/>
-      <c r="F113" s="117"/>
-      <c r="G113" s="117"/>
-      <c r="H113" s="117"/>
-      <c r="S113" s="111"/>
-      <c r="T113" s="111"/>
-      <c r="U113" s="111"/>
-      <c r="V113" s="111"/>
-      <c r="W113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
+      <c r="G113" s="111"/>
+      <c r="H113" s="111"/>
+      <c r="S113" s="133"/>
+      <c r="T113" s="133"/>
+      <c r="U113" s="133"/>
+      <c r="V113" s="133"/>
+      <c r="W113" s="133"/>
     </row>
     <row r="114" spans="2:23">
-      <c r="E114" s="117"/>
-      <c r="F114" s="117"/>
-      <c r="G114" s="117"/>
-      <c r="H114" s="117"/>
-      <c r="S114" s="111"/>
-      <c r="T114" s="111"/>
-      <c r="U114" s="111"/>
-      <c r="V114" s="111"/>
-      <c r="W114" s="111"/>
+      <c r="E114" s="111"/>
+      <c r="F114" s="111"/>
+      <c r="G114" s="111"/>
+      <c r="H114" s="111"/>
+      <c r="S114" s="133"/>
+      <c r="T114" s="133"/>
+      <c r="U114" s="133"/>
+      <c r="V114" s="133"/>
+      <c r="W114" s="133"/>
     </row>
     <row r="115" spans="2:23">
-      <c r="D115" s="117" t="s">
+      <c r="D115" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="S115" s="111"/>
-      <c r="T115" s="111"/>
-      <c r="U115" s="111"/>
-      <c r="V115" s="111"/>
-      <c r="W115" s="111"/>
+      <c r="S115" s="133"/>
+      <c r="T115" s="133"/>
+      <c r="U115" s="133"/>
+      <c r="V115" s="133"/>
+      <c r="W115" s="133"/>
     </row>
     <row r="116" spans="2:23">
-      <c r="D116" s="117" t="s">
+      <c r="D116" s="111" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="117" spans="2:23">
-      <c r="F117" s="93">
+      <c r="F117" s="90">
         <f>SUM(Table134[Difference (d) *])</f>
         <v>24.9</v>
       </c>
-      <c r="G117" s="116">
+      <c r="G117" s="110">
         <f>SUM(Table134[(d - dbar)])</f>
         <v>0</v>
       </c>
-      <c r="H117" s="116">
+      <c r="H117" s="110">
         <f>SUM(Table134[(d - dbar)^2])</f>
         <v>59.328749999999992</v>
       </c>
       <c r="R117" s="53"/>
     </row>
     <row r="118" spans="2:23">
-      <c r="B118" s="93"/>
-      <c r="C118" s="115" t="s">
+      <c r="B118" s="90"/>
+      <c r="C118" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="115" t="s">
+      <c r="D118" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="E118" s="115" t="s">
+      <c r="E118" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="F118" s="124" t="s">
+      <c r="F118" s="117" t="s">
         <v>280</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -5365,102 +5535,102 @@
       <c r="H118" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I118" s="93"/>
+      <c r="I118" s="90"/>
     </row>
     <row r="119" spans="2:23">
-      <c r="B119" s="93"/>
+      <c r="B119" s="90"/>
       <c r="C119" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D119" s="132">
+      <c r="D119" s="125">
         <v>6.6</v>
       </c>
-      <c r="E119" s="132">
+      <c r="E119" s="125">
         <v>6.8</v>
       </c>
       <c r="F119">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="G119" s="109">
+      <c r="G119" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-3.3125</v>
       </c>
-      <c r="H119" s="109">
+      <c r="H119" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>10.97265625</v>
       </c>
-      <c r="I119" s="93"/>
+      <c r="I119" s="90"/>
     </row>
     <row r="120" spans="2:23">
-      <c r="B120" s="93"/>
+      <c r="B120" s="90"/>
       <c r="C120" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D120" s="132">
+      <c r="D120" s="125">
         <v>6.5</v>
       </c>
-      <c r="E120" s="132">
+      <c r="E120" s="125">
         <v>2.4</v>
       </c>
       <c r="F120">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G120" s="109">
+      <c r="G120" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>0.98749999999999982</v>
       </c>
-      <c r="H120" s="109">
+      <c r="H120" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>0.97515624999999961</v>
       </c>
-      <c r="I120" s="93"/>
+      <c r="I120" s="90"/>
     </row>
     <row r="121" spans="2:23">
-      <c r="B121" s="93"/>
+      <c r="B121" s="90"/>
       <c r="C121" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D121" s="132">
+      <c r="D121" s="125">
         <v>9</v>
       </c>
-      <c r="E121" s="132">
+      <c r="E121" s="125">
         <v>7.4</v>
       </c>
       <c r="F121">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>1.5999999999999996</v>
       </c>
-      <c r="G121" s="109">
+      <c r="G121" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-1.5125000000000002</v>
       </c>
-      <c r="H121" s="109">
+      <c r="H121" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>2.2876562500000004</v>
       </c>
-      <c r="I121" s="93"/>
+      <c r="I121" s="90"/>
     </row>
     <row r="122" spans="2:23">
       <c r="C122" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D122" s="132">
+      <c r="D122" s="125">
         <v>10.3</v>
       </c>
-      <c r="E122" s="132">
+      <c r="E122" s="125">
         <v>8.5</v>
       </c>
       <c r="F122">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="G122" s="109">
+      <c r="G122" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-1.3124999999999991</v>
       </c>
-      <c r="H122" s="109">
+      <c r="H122" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>1.7226562499999978</v>
       </c>
@@ -5469,21 +5639,21 @@
       <c r="C123" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D123" s="132">
+      <c r="D123" s="125">
         <v>11.2</v>
       </c>
-      <c r="E123" s="132">
+      <c r="E123" s="125">
         <v>8.1</v>
       </c>
       <c r="F123">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>3.0999999999999996</v>
       </c>
-      <c r="G123" s="109">
+      <c r="G123" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-1.2500000000000178E-2</v>
       </c>
-      <c r="H123" s="109">
+      <c r="H123" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>1.5625000000000445E-4</v>
       </c>
@@ -5492,21 +5662,21 @@
       <c r="C124" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D124" s="132">
+      <c r="D124" s="125">
         <v>8.1</v>
       </c>
-      <c r="E124" s="132">
+      <c r="E124" s="125">
         <v>6.1</v>
       </c>
       <c r="F124">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>2</v>
       </c>
-      <c r="G124" s="109">
+      <c r="G124" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-1.1124999999999998</v>
       </c>
-      <c r="H124" s="109">
+      <c r="H124" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>1.2376562499999997</v>
       </c>
@@ -5515,21 +5685,21 @@
       <c r="C125" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D125" s="132">
+      <c r="D125" s="125">
         <v>6.3</v>
       </c>
-      <c r="E125" s="132">
+      <c r="E125" s="125">
         <v>3.4</v>
       </c>
       <c r="F125">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>2.9</v>
       </c>
-      <c r="G125" s="109">
+      <c r="G125" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>-0.21249999999999991</v>
       </c>
-      <c r="H125" s="109">
+      <c r="H125" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>4.515624999999996E-2</v>
       </c>
@@ -5538,27 +5708,30 @@
       <c r="C126" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D126" s="132">
+      <c r="D126" s="125">
         <v>11.6</v>
       </c>
-      <c r="E126" s="132">
+      <c r="E126" s="125">
         <v>2</v>
       </c>
       <c r="F126">
         <f>Table134[[#This Row],[Before]]-Table134[[#This Row],[After]]</f>
         <v>9.6</v>
       </c>
-      <c r="G126" s="109">
+      <c r="G126" s="104">
         <f>Table134[[#This Row],[Difference (d) *]]-(SUM(Table134[Difference (d) *])/COUNT(Table134[Difference (d) *]))</f>
         <v>6.4874999999999998</v>
       </c>
-      <c r="H126" s="109">
+      <c r="H126" s="104">
         <f>Table134[[#This Row],[(d - dbar)]]^2</f>
         <v>42.087656249999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="S26:W29"/>
+    <mergeCell ref="B2:I17"/>
     <mergeCell ref="S112:W115"/>
     <mergeCell ref="B88:I93"/>
     <mergeCell ref="B95:I96"/>
@@ -5566,9 +5739,6 @@
     <mergeCell ref="L58:P58"/>
     <mergeCell ref="S71:W74"/>
     <mergeCell ref="L99:P99"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="S26:W29"/>
-    <mergeCell ref="B2:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
@@ -5583,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4041B246-1F07-42D3-8525-F84CB90D5CCE}">
   <dimension ref="D1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5610,7 +5780,7 @@
       <c r="J2" s="36">
         <v>10</v>
       </c>
-      <c r="K2" s="133">
+      <c r="K2" s="126">
         <v>44132</v>
       </c>
       <c r="L2" s="36" t="s">
@@ -5630,7 +5800,7 @@
       <c r="J3">
         <v>11</v>
       </c>
-      <c r="K3" s="92">
+      <c r="K3" s="89">
         <v>44139</v>
       </c>
       <c r="L3" t="s">
@@ -5669,7 +5839,7 @@
       <c r="J6">
         <v>12</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="89">
         <v>44146</v>
       </c>
       <c r="L6" t="s">
@@ -5686,7 +5856,7 @@
       <c r="J7">
         <v>13</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="89">
         <v>44153</v>
       </c>
       <c r="L7" t="s">
@@ -5706,7 +5876,7 @@
       <c r="J8">
         <v>14</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="89">
         <v>44160</v>
       </c>
       <c r="L8" t="s">
@@ -5717,7 +5887,7 @@
       <c r="J9">
         <v>15</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="89">
         <v>44167</v>
       </c>
       <c r="L9" t="s">
@@ -5731,7 +5901,7 @@
       <c r="J10">
         <v>16</v>
       </c>
-      <c r="K10" s="92">
+      <c r="K10" s="89">
         <v>44174</v>
       </c>
       <c r="L10" t="s">
@@ -5753,7 +5923,7 @@
       <c r="J12">
         <v>17</v>
       </c>
-      <c r="K12" s="92">
+      <c r="K12" s="89">
         <v>44181</v>
       </c>
       <c r="L12" t="s">
@@ -5772,6 +5942,501 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D6B29D-1E30-4E60-B718-064FA93780B5}">
+  <dimension ref="A1:AE27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="K3" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="R3" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T3" s="53"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="N4" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="O4" s="88">
+        <f>COUNTA(Table4[#Headers])</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="53"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="B5" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="88">
+        <f>COUNT(Table4[])</f>
+        <v>12</v>
+      </c>
+      <c r="P5" s="53"/>
+      <c r="S5" t="s">
+        <v>369</v>
+      </c>
+      <c r="W5" s="97"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="B6" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="O6" s="88">
+        <f>AVERAGE(Table4[])</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="W6" s="97"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="B7" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="53"/>
+      <c r="W7" s="53"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="B8" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="53"/>
+      <c r="W8" s="53"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="K10" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="R10" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+    </row>
+    <row r="11" spans="1:23" ht="24">
+      <c r="C11" s="137" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="N11" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="P11" s="73"/>
+      <c r="R11" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="S11" s="139" t="s">
+        <v>364</v>
+      </c>
+      <c r="T11" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="139" t="s">
+        <v>365</v>
+      </c>
+      <c r="V11" s="139" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="C12" s="137">
+        <v>8</v>
+      </c>
+      <c r="D12" s="137">
+        <v>3</v>
+      </c>
+      <c r="E12" s="137">
+        <v>3</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="53"/>
+      <c r="N12" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="O12" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="P12" s="73"/>
+      <c r="R12" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="T12" s="43" t="str">
+        <f>O21</f>
+        <v>k - 1</v>
+      </c>
+      <c r="U12" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="V12" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="C13" s="137">
+        <v>6</v>
+      </c>
+      <c r="D13" s="137">
+        <v>2</v>
+      </c>
+      <c r="E13" s="137">
+        <v>4</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="T13" s="43" t="str">
+        <f>O22</f>
+        <v>n - k</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="V13" s="43"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="C14" s="137">
+        <v>10</v>
+      </c>
+      <c r="D14" s="137">
+        <v>4</v>
+      </c>
+      <c r="E14" s="137">
+        <v>5</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="R14" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="C15" s="137">
+        <v>9</v>
+      </c>
+      <c r="D15" s="137">
+        <v>3</v>
+      </c>
+      <c r="E15" s="137">
+        <v>4</v>
+      </c>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="O15" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="98">
+        <f>O8</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="K16" s="93"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+    </row>
+    <row r="17" spans="11:31">
+      <c r="K17" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="11:31">
+      <c r="M18" s="95"/>
+      <c r="O18" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="91" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="11:31">
+      <c r="K20" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="95"/>
+      <c r="R20" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="11:31">
+      <c r="M21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N21">
+        <f>O4-1</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="97" t="s">
+        <v>360</v>
+      </c>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+    </row>
+    <row r="22" spans="11:31">
+      <c r="M22" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N22">
+        <f>O5-O4</f>
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>361</v>
+      </c>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+    </row>
+    <row r="23" spans="11:31">
+      <c r="M23" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N23">
+        <f>_xlfn.F.INV.RT(P15,N21,N22)</f>
+        <v>4.2564947290937507</v>
+      </c>
+      <c r="O23" s="97" t="s">
+        <v>359</v>
+      </c>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+    </row>
+    <row r="24" spans="11:31">
+      <c r="L24" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" s="27" t="str">
+        <f>P18&amp;" &gt; "&amp;ROUND(N23,2)</f>
+        <v>f-value &gt; 4.26</v>
+      </c>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+    </row>
+    <row r="27" spans="11:31">
+      <c r="AE27" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="S21:W24"/>
+    <mergeCell ref="R10:V10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE672EF-43A3-4F8D-B7B5-88643A557C4D}">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -7300,20 +7965,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A42">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:K1">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K42">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>ROUND($O$5,5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>$O$8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7321,7 +7986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB15AAC-DFF7-4683-BD98-0F2B1504CD5B}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
@@ -7916,7 +8581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73696FE-1F3F-46D0-9B69-AADE54999C15}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -7927,7 +8592,7 @@
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="123" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7966,16 +8631,16 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -7985,14 +8650,14 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8008,14 +8673,14 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8028,14 +8693,14 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
       <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8051,14 +8716,14 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
@@ -8074,14 +8739,14 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
@@ -8092,14 +8757,14 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
@@ -8109,14 +8774,14 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="M9" s="2" t="s">
         <v>88</v>
       </c>
@@ -8551,16 +9216,16 @@
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
       <c r="K42" s="1">
         <v>1</v>
       </c>
@@ -8570,14 +9235,14 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
       <c r="M43" s="2" t="s">
         <v>18</v>
       </c>
@@ -8593,14 +9258,14 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
       <c r="M44" s="2" t="s">
         <v>19</v>
       </c>
@@ -8613,14 +9278,14 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
       <c r="M45" s="2" t="s">
         <v>20</v>
       </c>
@@ -8636,14 +9301,14 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
       <c r="M46" s="2" t="s">
         <v>22</v>
       </c>
@@ -8659,14 +9324,14 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
       <c r="M47" s="2" t="s">
         <v>42</v>
       </c>
@@ -8677,14 +9342,14 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
       <c r="M48" s="2" t="s">
         <v>23</v>
       </c>
@@ -8694,14 +9359,14 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
       <c r="M49" s="2" t="s">
         <v>88</v>
       </c>
@@ -9134,16 +9799,16 @@
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="128"/>
       <c r="K83" s="1">
         <v>1</v>
       </c>
@@ -9153,14 +9818,14 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="128"/>
       <c r="M84" s="2" t="s">
         <v>18</v>
       </c>
@@ -9176,14 +9841,14 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
+      <c r="B85" s="128"/>
+      <c r="C85" s="128"/>
+      <c r="D85" s="128"/>
+      <c r="E85" s="128"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="128"/>
       <c r="M85" s="2" t="s">
         <v>19</v>
       </c>
@@ -9196,14 +9861,14 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="128"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="128"/>
       <c r="M86" s="2" t="s">
         <v>20</v>
       </c>
@@ -9219,14 +9884,14 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="128"/>
       <c r="M87" s="2" t="s">
         <v>22</v>
       </c>
@@ -9242,14 +9907,14 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
       <c r="M88" s="2" t="s">
         <v>42</v>
       </c>
@@ -9260,14 +9925,14 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
       <c r="M89" s="2" t="s">
         <v>23</v>
       </c>
@@ -9277,14 +9942,14 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
       <c r="M90" s="2" t="s">
         <v>88</v>
       </c>
@@ -9753,16 +10418,16 @@
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="89" t="s">
+      <c r="B124" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="89"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="89"/>
+      <c r="C124" s="128"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="128"/>
+      <c r="F124" s="128"/>
+      <c r="G124" s="128"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="128"/>
       <c r="K124" s="1">
         <v>1</v>
       </c>
@@ -9772,14 +10437,14 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="128"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="128"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="128"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="128"/>
       <c r="M125" s="2" t="s">
         <v>18</v>
       </c>
@@ -9795,14 +10460,14 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="89"/>
-      <c r="G126" s="89"/>
-      <c r="H126" s="89"/>
-      <c r="I126" s="89"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="128"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="128"/>
       <c r="M126" s="2" t="s">
         <v>19</v>
       </c>
@@ -9815,14 +10480,14 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="89"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="89"/>
-      <c r="G127" s="89"/>
-      <c r="H127" s="89"/>
-      <c r="I127" s="89"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="128"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="128"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="128"/>
       <c r="M127" s="2" t="s">
         <v>20</v>
       </c>
@@ -9838,14 +10503,14 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
-      <c r="F128" s="89"/>
-      <c r="G128" s="89"/>
-      <c r="H128" s="89"/>
-      <c r="I128" s="89"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="128"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="128"/>
+      <c r="F128" s="128"/>
+      <c r="G128" s="128"/>
+      <c r="H128" s="128"/>
+      <c r="I128" s="128"/>
       <c r="M128" s="2" t="s">
         <v>22</v>
       </c>
@@ -9861,14 +10526,14 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
-      <c r="F129" s="89"/>
-      <c r="G129" s="89"/>
-      <c r="H129" s="89"/>
-      <c r="I129" s="89"/>
+      <c r="B129" s="128"/>
+      <c r="C129" s="128"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="128"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="128"/>
+      <c r="H129" s="128"/>
+      <c r="I129" s="128"/>
       <c r="M129" s="2" t="s">
         <v>42</v>
       </c>
@@ -9879,14 +10544,14 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="89"/>
-      <c r="G130" s="89"/>
-      <c r="H130" s="89"/>
-      <c r="I130" s="89"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="128"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="128"/>
+      <c r="F130" s="128"/>
+      <c r="G130" s="128"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="128"/>
       <c r="M130" s="2" t="s">
         <v>23</v>
       </c>
@@ -9896,14 +10561,14 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="89"/>
-      <c r="G131" s="89"/>
-      <c r="H131" s="89"/>
-      <c r="I131" s="89"/>
+      <c r="B131" s="128"/>
+      <c r="C131" s="128"/>
+      <c r="D131" s="128"/>
+      <c r="E131" s="128"/>
+      <c r="F131" s="128"/>
+      <c r="G131" s="128"/>
+      <c r="H131" s="128"/>
+      <c r="I131" s="128"/>
       <c r="M131" s="2" t="s">
         <v>88</v>
       </c>
@@ -10405,17 +11070,17 @@
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -10426,15 +11091,15 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
@@ -10452,15 +11117,15 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
@@ -10474,15 +11139,15 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
       <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
@@ -10498,15 +11163,15 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
@@ -10524,15 +11189,15 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
@@ -10545,15 +11210,15 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
@@ -10565,15 +11230,15 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
       <c r="M9" s="2" t="s">
         <v>35</v>
       </c>
@@ -10585,15 +11250,15 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
       <c r="M10" s="31" t="s">
         <v>16</v>
       </c>
@@ -10611,15 +11276,15 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
       <c r="M11" s="31" t="s">
         <v>46</v>
       </c>
@@ -10636,15 +11301,15 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
       <c r="M12" s="2" t="s">
         <v>73</v>
       </c>
@@ -10658,15 +11323,15 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
       <c r="M13" s="2" t="s">
         <v>72</v>
       </c>
@@ -11007,17 +11672,17 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
       <c r="K43" s="1">
         <v>1</v>
       </c>
@@ -11031,15 +11696,15 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="1"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
       <c r="M44" s="2" t="s">
         <v>18</v>
       </c>
@@ -11059,15 +11724,15 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="1"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
       <c r="M45" s="2" t="s">
         <v>19</v>
       </c>
@@ -11081,15 +11746,15 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="1"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
       <c r="M46" s="2" t="s">
         <v>20</v>
       </c>
@@ -11105,15 +11770,15 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="1"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
       <c r="M47" s="2" t="s">
         <v>22</v>
       </c>
@@ -11131,15 +11796,15 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="1"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
       <c r="M48" s="2" t="s">
         <v>42</v>
       </c>
@@ -11152,15 +11817,15 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="1"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
       <c r="M49" s="2" t="s">
         <v>23</v>
       </c>
@@ -11172,15 +11837,15 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="1"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
       <c r="M50" s="2" t="s">
         <v>35</v>
       </c>
@@ -11192,15 +11857,15 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="1"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
       <c r="M51" s="31" t="s">
         <v>16</v>
       </c>
@@ -11218,15 +11883,15 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="1"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
       <c r="M52" s="31" t="s">
         <v>46</v>
       </c>
@@ -11243,15 +11908,15 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="1"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
       <c r="M53" s="2" t="s">
         <v>73</v>
       </c>
@@ -11265,15 +11930,15 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="1"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
       <c r="M54" s="2" t="s">
         <v>72</v>
       </c>
@@ -11647,17 +12312,17 @@
       <c r="A90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="89" t="s">
+      <c r="B90" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="128"/>
       <c r="K90" s="1">
         <v>1</v>
       </c>
@@ -11679,15 +12344,15 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" s="1"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="128"/>
+      <c r="J91" s="128"/>
       <c r="M91" s="2" t="s">
         <v>18</v>
       </c>
@@ -11719,15 +12384,15 @@
     </row>
     <row r="92" spans="1:29">
       <c r="A92" s="1"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
+      <c r="B92" s="128"/>
+      <c r="C92" s="128"/>
+      <c r="D92" s="128"/>
+      <c r="E92" s="128"/>
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="128"/>
       <c r="M92" s="2" t="s">
         <v>19</v>
       </c>
@@ -11754,15 +12419,15 @@
     </row>
     <row r="93" spans="1:29">
       <c r="A93" s="1"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="128"/>
+      <c r="D93" s="128"/>
+      <c r="E93" s="128"/>
+      <c r="F93" s="128"/>
+      <c r="G93" s="128"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="128"/>
+      <c r="J93" s="128"/>
       <c r="M93" s="2" t="s">
         <v>20</v>
       </c>
@@ -12470,17 +13135,17 @@
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="89" t="s">
+      <c r="B137" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="89"/>
-      <c r="G137" s="89"/>
-      <c r="H137" s="89"/>
-      <c r="I137" s="89"/>
-      <c r="J137" s="89"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="128"/>
       <c r="K137" s="1">
         <v>1</v>
       </c>
@@ -12502,15 +13167,15 @@
     </row>
     <row r="138" spans="1:29">
       <c r="A138" s="1"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="89"/>
-      <c r="I138" s="89"/>
-      <c r="J138" s="89"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="128"/>
+      <c r="F138" s="128"/>
+      <c r="G138" s="128"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="128"/>
+      <c r="J138" s="128"/>
       <c r="M138" s="2" t="s">
         <v>18</v>
       </c>
@@ -12542,15 +13207,15 @@
     </row>
     <row r="139" spans="1:29">
       <c r="A139" s="1"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="89"/>
-      <c r="G139" s="89"/>
-      <c r="H139" s="89"/>
-      <c r="I139" s="89"/>
-      <c r="J139" s="89"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="128"/>
+      <c r="J139" s="128"/>
       <c r="M139" s="2" t="s">
         <v>19</v>
       </c>
@@ -12577,15 +13242,15 @@
     </row>
     <row r="140" spans="1:29">
       <c r="A140" s="1"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
-      <c r="G140" s="89"/>
-      <c r="H140" s="89"/>
-      <c r="I140" s="89"/>
-      <c r="J140" s="89"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="128"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="128"/>
+      <c r="I140" s="128"/>
+      <c r="J140" s="128"/>
       <c r="M140" s="2" t="s">
         <v>20</v>
       </c>
@@ -12906,28 +13571,28 @@
       </c>
     </row>
     <row r="156" spans="1:29">
-      <c r="B156" s="89" t="s">
+      <c r="B156" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="89"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="89"/>
-      <c r="I156" s="89"/>
-      <c r="J156" s="89"/>
+      <c r="C156" s="128"/>
+      <c r="D156" s="128"/>
+      <c r="E156" s="128"/>
+      <c r="F156" s="128"/>
+      <c r="G156" s="128"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="128"/>
+      <c r="J156" s="128"/>
     </row>
     <row r="157" spans="1:29">
-      <c r="B157" s="89"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="89"/>
-      <c r="G157" s="89"/>
-      <c r="H157" s="89"/>
-      <c r="I157" s="89"/>
-      <c r="J157" s="89"/>
+      <c r="B157" s="128"/>
+      <c r="C157" s="128"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="128"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="128"/>
+      <c r="J157" s="128"/>
       <c r="K157" s="1">
         <v>3</v>
       </c>
@@ -13327,17 +13992,17 @@
       <c r="A186" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B186" s="89" t="s">
+      <c r="B186" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="C186" s="89"/>
-      <c r="D186" s="89"/>
-      <c r="E186" s="89"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="89"/>
-      <c r="H186" s="89"/>
-      <c r="I186" s="89"/>
-      <c r="J186" s="89"/>
+      <c r="C186" s="128"/>
+      <c r="D186" s="128"/>
+      <c r="E186" s="128"/>
+      <c r="F186" s="128"/>
+      <c r="G186" s="128"/>
+      <c r="H186" s="128"/>
+      <c r="I186" s="128"/>
+      <c r="J186" s="128"/>
       <c r="K186" s="1">
         <v>1</v>
       </c>
@@ -13359,15 +14024,15 @@
     </row>
     <row r="187" spans="1:29">
       <c r="A187" s="1"/>
-      <c r="B187" s="89"/>
-      <c r="C187" s="89"/>
-      <c r="D187" s="89"/>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="89"/>
-      <c r="H187" s="89"/>
-      <c r="I187" s="89"/>
-      <c r="J187" s="89"/>
+      <c r="B187" s="128"/>
+      <c r="C187" s="128"/>
+      <c r="D187" s="128"/>
+      <c r="E187" s="128"/>
+      <c r="F187" s="128"/>
+      <c r="G187" s="128"/>
+      <c r="H187" s="128"/>
+      <c r="I187" s="128"/>
+      <c r="J187" s="128"/>
       <c r="M187" s="2" t="s">
         <v>18</v>
       </c>
@@ -13399,15 +14064,15 @@
     </row>
     <row r="188" spans="1:29">
       <c r="A188" s="1"/>
-      <c r="B188" s="89"/>
-      <c r="C188" s="89"/>
-      <c r="D188" s="89"/>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
-      <c r="H188" s="89"/>
-      <c r="I188" s="89"/>
-      <c r="J188" s="89"/>
+      <c r="B188" s="128"/>
+      <c r="C188" s="128"/>
+      <c r="D188" s="128"/>
+      <c r="E188" s="128"/>
+      <c r="F188" s="128"/>
+      <c r="G188" s="128"/>
+      <c r="H188" s="128"/>
+      <c r="I188" s="128"/>
+      <c r="J188" s="128"/>
       <c r="M188" s="2" t="s">
         <v>19</v>
       </c>
@@ -13434,15 +14099,15 @@
     </row>
     <row r="189" spans="1:29">
       <c r="A189" s="1"/>
-      <c r="B189" s="89"/>
-      <c r="C189" s="89"/>
-      <c r="D189" s="89"/>
-      <c r="E189" s="89"/>
-      <c r="F189" s="89"/>
-      <c r="G189" s="89"/>
-      <c r="H189" s="89"/>
-      <c r="I189" s="89"/>
-      <c r="J189" s="89"/>
+      <c r="B189" s="128"/>
+      <c r="C189" s="128"/>
+      <c r="D189" s="128"/>
+      <c r="E189" s="128"/>
+      <c r="F189" s="128"/>
+      <c r="G189" s="128"/>
+      <c r="H189" s="128"/>
+      <c r="I189" s="128"/>
+      <c r="J189" s="128"/>
       <c r="M189" s="2" t="s">
         <v>20</v>
       </c>
@@ -13763,26 +14428,26 @@
       </c>
     </row>
     <row r="205" spans="1:27">
-      <c r="B205" s="89"/>
-      <c r="C205" s="89"/>
-      <c r="D205" s="89"/>
-      <c r="E205" s="89"/>
-      <c r="F205" s="89"/>
-      <c r="G205" s="89"/>
-      <c r="H205" s="89"/>
-      <c r="I205" s="89"/>
-      <c r="J205" s="89"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="128"/>
+      <c r="D205" s="128"/>
+      <c r="E205" s="128"/>
+      <c r="F205" s="128"/>
+      <c r="G205" s="128"/>
+      <c r="H205" s="128"/>
+      <c r="I205" s="128"/>
+      <c r="J205" s="128"/>
     </row>
     <row r="206" spans="1:27">
-      <c r="B206" s="89"/>
-      <c r="C206" s="89"/>
-      <c r="D206" s="89"/>
-      <c r="E206" s="89"/>
-      <c r="F206" s="89"/>
-      <c r="G206" s="89"/>
-      <c r="H206" s="89"/>
-      <c r="I206" s="89"/>
-      <c r="J206" s="89"/>
+      <c r="B206" s="128"/>
+      <c r="C206" s="128"/>
+      <c r="D206" s="128"/>
+      <c r="E206" s="128"/>
+      <c r="F206" s="128"/>
+      <c r="G206" s="128"/>
+      <c r="H206" s="128"/>
+      <c r="I206" s="128"/>
+      <c r="J206" s="128"/>
       <c r="K206" s="1">
         <v>3</v>
       </c>
@@ -14183,17 +14848,17 @@
       <c r="A238" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B238" s="89" t="s">
+      <c r="B238" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="C238" s="89"/>
-      <c r="D238" s="89"/>
-      <c r="E238" s="89"/>
-      <c r="F238" s="89"/>
-      <c r="G238" s="89"/>
-      <c r="H238" s="89"/>
-      <c r="I238" s="89"/>
-      <c r="J238" s="89"/>
+      <c r="C238" s="128"/>
+      <c r="D238" s="128"/>
+      <c r="E238" s="128"/>
+      <c r="F238" s="128"/>
+      <c r="G238" s="128"/>
+      <c r="H238" s="128"/>
+      <c r="I238" s="128"/>
+      <c r="J238" s="128"/>
       <c r="K238" s="1">
         <v>1</v>
       </c>
@@ -14215,15 +14880,15 @@
     </row>
     <row r="239" spans="1:29">
       <c r="A239" s="1"/>
-      <c r="B239" s="89"/>
-      <c r="C239" s="89"/>
-      <c r="D239" s="89"/>
-      <c r="E239" s="89"/>
-      <c r="F239" s="89"/>
-      <c r="G239" s="89"/>
-      <c r="H239" s="89"/>
-      <c r="I239" s="89"/>
-      <c r="J239" s="89"/>
+      <c r="B239" s="128"/>
+      <c r="C239" s="128"/>
+      <c r="D239" s="128"/>
+      <c r="E239" s="128"/>
+      <c r="F239" s="128"/>
+      <c r="G239" s="128"/>
+      <c r="H239" s="128"/>
+      <c r="I239" s="128"/>
+      <c r="J239" s="128"/>
       <c r="M239" s="2" t="s">
         <v>18</v>
       </c>
@@ -14255,15 +14920,15 @@
     </row>
     <row r="240" spans="1:29">
       <c r="A240" s="1"/>
-      <c r="B240" s="89"/>
-      <c r="C240" s="89"/>
-      <c r="D240" s="89"/>
-      <c r="E240" s="89"/>
-      <c r="F240" s="89"/>
-      <c r="G240" s="89"/>
-      <c r="H240" s="89"/>
-      <c r="I240" s="89"/>
-      <c r="J240" s="89"/>
+      <c r="B240" s="128"/>
+      <c r="C240" s="128"/>
+      <c r="D240" s="128"/>
+      <c r="E240" s="128"/>
+      <c r="F240" s="128"/>
+      <c r="G240" s="128"/>
+      <c r="H240" s="128"/>
+      <c r="I240" s="128"/>
+      <c r="J240" s="128"/>
       <c r="M240" s="2" t="s">
         <v>19</v>
       </c>
@@ -14290,15 +14955,15 @@
     </row>
     <row r="241" spans="1:27">
       <c r="A241" s="1"/>
-      <c r="B241" s="89"/>
-      <c r="C241" s="89"/>
-      <c r="D241" s="89"/>
-      <c r="E241" s="89"/>
-      <c r="F241" s="89"/>
-      <c r="G241" s="89"/>
-      <c r="H241" s="89"/>
-      <c r="I241" s="89"/>
-      <c r="J241" s="89"/>
+      <c r="B241" s="128"/>
+      <c r="C241" s="128"/>
+      <c r="D241" s="128"/>
+      <c r="E241" s="128"/>
+      <c r="F241" s="128"/>
+      <c r="G241" s="128"/>
+      <c r="H241" s="128"/>
+      <c r="I241" s="128"/>
+      <c r="J241" s="128"/>
       <c r="M241" s="2" t="s">
         <v>20</v>
       </c>
@@ -14619,28 +15284,28 @@
       </c>
     </row>
     <row r="257" spans="1:18">
-      <c r="B257" s="89" t="s">
+      <c r="B257" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C257" s="89"/>
-      <c r="D257" s="89"/>
-      <c r="E257" s="89"/>
-      <c r="F257" s="89"/>
-      <c r="G257" s="89"/>
-      <c r="H257" s="89"/>
-      <c r="I257" s="89"/>
-      <c r="J257" s="89"/>
+      <c r="C257" s="128"/>
+      <c r="D257" s="128"/>
+      <c r="E257" s="128"/>
+      <c r="F257" s="128"/>
+      <c r="G257" s="128"/>
+      <c r="H257" s="128"/>
+      <c r="I257" s="128"/>
+      <c r="J257" s="128"/>
     </row>
     <row r="258" spans="1:18">
-      <c r="B258" s="89"/>
-      <c r="C258" s="89"/>
-      <c r="D258" s="89"/>
-      <c r="E258" s="89"/>
-      <c r="F258" s="89"/>
-      <c r="G258" s="89"/>
-      <c r="H258" s="89"/>
-      <c r="I258" s="89"/>
-      <c r="J258" s="89"/>
+      <c r="B258" s="128"/>
+      <c r="C258" s="128"/>
+      <c r="D258" s="128"/>
+      <c r="E258" s="128"/>
+      <c r="F258" s="128"/>
+      <c r="G258" s="128"/>
+      <c r="H258" s="128"/>
+      <c r="I258" s="128"/>
+      <c r="J258" s="128"/>
       <c r="K258" s="1">
         <v>3</v>
       </c>
@@ -15041,17 +15706,17 @@
       <c r="A290" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B290" s="89" t="s">
+      <c r="B290" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="C290" s="89"/>
-      <c r="D290" s="89"/>
-      <c r="E290" s="89"/>
-      <c r="F290" s="89"/>
-      <c r="G290" s="89"/>
-      <c r="H290" s="89"/>
-      <c r="I290" s="89"/>
-      <c r="J290" s="89"/>
+      <c r="C290" s="128"/>
+      <c r="D290" s="128"/>
+      <c r="E290" s="128"/>
+      <c r="F290" s="128"/>
+      <c r="G290" s="128"/>
+      <c r="H290" s="128"/>
+      <c r="I290" s="128"/>
+      <c r="J290" s="128"/>
       <c r="K290" s="1">
         <v>1</v>
       </c>
@@ -15073,15 +15738,15 @@
     </row>
     <row r="291" spans="1:29">
       <c r="A291" s="1"/>
-      <c r="B291" s="89"/>
-      <c r="C291" s="89"/>
-      <c r="D291" s="89"/>
-      <c r="E291" s="89"/>
-      <c r="F291" s="89"/>
-      <c r="G291" s="89"/>
-      <c r="H291" s="89"/>
-      <c r="I291" s="89"/>
-      <c r="J291" s="89"/>
+      <c r="B291" s="128"/>
+      <c r="C291" s="128"/>
+      <c r="D291" s="128"/>
+      <c r="E291" s="128"/>
+      <c r="F291" s="128"/>
+      <c r="G291" s="128"/>
+      <c r="H291" s="128"/>
+      <c r="I291" s="128"/>
+      <c r="J291" s="128"/>
       <c r="M291" s="2" t="s">
         <v>18</v>
       </c>
@@ -15113,15 +15778,15 @@
     </row>
     <row r="292" spans="1:29">
       <c r="A292" s="1"/>
-      <c r="B292" s="89"/>
-      <c r="C292" s="89"/>
-      <c r="D292" s="89"/>
-      <c r="E292" s="89"/>
-      <c r="F292" s="89"/>
-      <c r="G292" s="89"/>
-      <c r="H292" s="89"/>
-      <c r="I292" s="89"/>
-      <c r="J292" s="89"/>
+      <c r="B292" s="128"/>
+      <c r="C292" s="128"/>
+      <c r="D292" s="128"/>
+      <c r="E292" s="128"/>
+      <c r="F292" s="128"/>
+      <c r="G292" s="128"/>
+      <c r="H292" s="128"/>
+      <c r="I292" s="128"/>
+      <c r="J292" s="128"/>
       <c r="M292" s="2" t="s">
         <v>19</v>
       </c>
@@ -15148,15 +15813,15 @@
     </row>
     <row r="293" spans="1:29">
       <c r="A293" s="1"/>
-      <c r="B293" s="89"/>
-      <c r="C293" s="89"/>
-      <c r="D293" s="89"/>
-      <c r="E293" s="89"/>
-      <c r="F293" s="89"/>
-      <c r="G293" s="89"/>
-      <c r="H293" s="89"/>
-      <c r="I293" s="89"/>
-      <c r="J293" s="89"/>
+      <c r="B293" s="128"/>
+      <c r="C293" s="128"/>
+      <c r="D293" s="128"/>
+      <c r="E293" s="128"/>
+      <c r="F293" s="128"/>
+      <c r="G293" s="128"/>
+      <c r="H293" s="128"/>
+      <c r="I293" s="128"/>
+      <c r="J293" s="128"/>
       <c r="M293" s="2" t="s">
         <v>20</v>
       </c>
@@ -15525,17 +16190,17 @@
       </c>
     </row>
     <row r="313" spans="1:21">
-      <c r="B313" s="89" t="s">
+      <c r="B313" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C313" s="89"/>
-      <c r="D313" s="89"/>
-      <c r="E313" s="89"/>
-      <c r="F313" s="89"/>
-      <c r="G313" s="89"/>
-      <c r="H313" s="89"/>
-      <c r="I313" s="89"/>
-      <c r="J313" s="89"/>
+      <c r="C313" s="128"/>
+      <c r="D313" s="128"/>
+      <c r="E313" s="128"/>
+      <c r="F313" s="128"/>
+      <c r="G313" s="128"/>
+      <c r="H313" s="128"/>
+      <c r="I313" s="128"/>
+      <c r="J313" s="128"/>
       <c r="M313" s="2" t="str">
         <f>ROUND(O312,4)&amp;O307</f>
         <v>3.6542 &gt; 1.761</v>
@@ -15546,15 +16211,15 @@
       </c>
     </row>
     <row r="314" spans="1:21">
-      <c r="B314" s="89"/>
-      <c r="C314" s="89"/>
-      <c r="D314" s="89"/>
-      <c r="E314" s="89"/>
-      <c r="F314" s="89"/>
-      <c r="G314" s="89"/>
-      <c r="H314" s="89"/>
-      <c r="I314" s="89"/>
-      <c r="J314" s="89"/>
+      <c r="B314" s="128"/>
+      <c r="C314" s="128"/>
+      <c r="D314" s="128"/>
+      <c r="E314" s="128"/>
+      <c r="F314" s="128"/>
+      <c r="G314" s="128"/>
+      <c r="H314" s="128"/>
+      <c r="I314" s="128"/>
+      <c r="J314" s="128"/>
       <c r="M314" s="2" t="str">
         <f>IF(O297&lt;&gt;"both","",ROUND(O312,4)&amp;O308)</f>
         <v/>
@@ -16178,16 +16843,16 @@
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="64" t="s">
         <v>165</v>
       </c>
@@ -16208,14 +16873,14 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="J4" s="52"/>
       <c r="K4" s="73"/>
       <c r="L4" s="74" t="s">
@@ -16236,14 +16901,14 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="52"/>
       <c r="K5" s="73"/>
       <c r="L5" s="74" t="s">
@@ -16272,14 +16937,14 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
       <c r="J6" s="52"/>
       <c r="K6" s="73"/>
       <c r="L6" s="74" t="s">
@@ -16304,14 +16969,14 @@
     </row>
     <row r="7" spans="1:23" ht="12.75" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
       <c r="J7" s="52"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -16334,14 +16999,14 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="65" t="s">
         <v>141</v>
       </c>
@@ -16370,14 +17035,14 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="52"/>
       <c r="K9" s="53"/>
       <c r="L9" s="77" t="s">
@@ -16404,14 +17069,14 @@
     </row>
     <row r="10" spans="1:23" ht="12.75" thickBot="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="55"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -16792,7 +17457,7 @@
       <c r="L21" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="M21" s="134">
+      <c r="M21" s="127">
         <f>ROUND(1-_xlfn.T.DIST(M18,M5-1,TRUE),4)</f>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -16866,11 +17531,11 @@
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="90" t="s">
+      <c r="L25" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
       <c r="O25" s="54"/>
       <c r="P25" s="53"/>
     </row>
@@ -16880,9 +17545,9 @@
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
       <c r="O26" s="54"/>
       <c r="P26" s="53"/>
     </row>
@@ -16892,27 +17557,27 @@
       </c>
       <c r="J27" s="52"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
       <c r="O27" s="54"/>
       <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:23">
       <c r="J28" s="52"/>
       <c r="K28" s="53"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
       <c r="O28" s="54"/>
       <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:23" ht="12.75" thickBot="1">
       <c r="J29" s="63"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
       <c r="O29" s="57"/>
       <c r="P29" s="53"/>
     </row>
@@ -16949,7 +17614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D08F8-B880-4D45-A1FC-250770084753}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:W29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
@@ -16965,31 +17632,31 @@
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="K2" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="K3" s="95" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="K3" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L3" s="62" t="s">
@@ -16999,7 +17666,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S3" s="62" t="s">
@@ -17008,14 +17675,14 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="N4" s="60"/>
@@ -17038,15 +17705,15 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74" t="s">
@@ -17069,19 +17736,19 @@
         <f>ROUND(_xlfn.NORM.S.INV(U5),3)</f>
         <v>-1.645</v>
       </c>
-      <c r="W5" s="101"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="K6" s="107"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="74" t="s">
@@ -17104,19 +17771,19 @@
         <f>IFERROR(ROUND(_xlfn.NORM.S.INV(U6),3),"")</f>
         <v/>
       </c>
-      <c r="W6" s="101"/>
+      <c r="W6" s="97"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="K7" s="107"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="74" t="s">
@@ -17139,15 +17806,15 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="K8" s="107"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="s">
@@ -17156,7 +17823,7 @@
       <c r="O8" s="88">
         <v>0.05</v>
       </c>
-      <c r="P8" s="108">
+      <c r="P8" s="103">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -17164,14 +17831,14 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
@@ -17182,15 +17849,15 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="K10" s="95" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="K10" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L10" s="62" t="s">
@@ -17198,7 +17865,7 @@
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S10" s="62" t="s">
@@ -17210,20 +17877,20 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="104" t="str">
+      <c r="O11" s="100" t="str">
         <f>"xbar"&amp;O4&amp;" &gt;= "&amp;"xbar"&amp;P4</f>
         <v>xbarGibbs &gt;= xbarCompetition</v>
       </c>
@@ -17240,20 +17907,20 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
       <c r="K12" s="62"/>
       <c r="L12" s="53"/>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="104" t="str">
+      <c r="O12" s="100" t="str">
         <f>"xbar"&amp;O4&amp;" &lt; "&amp;"xbar"&amp;P4</f>
         <v>xbarGibbs &lt; xbarCompetition</v>
       </c>
@@ -17272,21 +17939,21 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="L13" s="106" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="L13" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
       <c r="T13" s="2" t="s">
@@ -17336,7 +18003,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L15" s="62" t="s">
@@ -17358,10 +18025,10 @@
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="102">
+      <c r="P16" s="98">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -17375,7 +18042,7 @@
       <c r="B17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="96"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
@@ -17391,7 +18058,7 @@
       <c r="B18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L18" s="62" t="s">
@@ -17409,11 +18076,11 @@
       <c r="B19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="O19" s="100" t="s">
+      <c r="M19" s="95"/>
+      <c r="O19" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="99" t="b">
+      <c r="P19" s="95" t="b">
         <f>AND(O7&lt;&gt;"",P7&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -17426,11 +18093,11 @@
         <v>193</v>
       </c>
       <c r="K20" s="62"/>
-      <c r="M20" s="99"/>
-      <c r="O20" s="100" t="s">
+      <c r="M20" s="95"/>
+      <c r="O20" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P20" s="99" t="b">
+      <c r="P20" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S20" t="s">
@@ -17444,7 +18111,7 @@
       <c r="O21" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P21" s="94" t="str">
+      <c r="P21" s="91" t="str">
         <f>IF(AND(P19,P20),"z-value","t-value")</f>
         <v>z-value</v>
       </c>
@@ -17468,7 +18135,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="R25" s="95" t="s">
+      <c r="R25" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -17476,35 +18143,35 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="S26" s="98" t="str">
+      <c r="S26" s="132" t="str">
         <f>"We can"&amp;IF(U16,"","not")&amp;" conclude that "&amp;L13&amp;"."</f>
         <v>We cannot conclude that babies using the Gibbs brand gained less weight.</v>
       </c>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
     </row>
     <row r="28" spans="1:25">
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
     </row>
     <row r="29" spans="1:25">
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
@@ -17513,37 +18180,37 @@
       <c r="K31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q31" s="105"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
       <c r="K32" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="K33" s="95" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="K33" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L33" s="62" t="s">
@@ -17553,7 +18220,7 @@
       <c r="N33" s="53"/>
       <c r="O33" s="53"/>
       <c r="P33" s="53"/>
-      <c r="R33" s="95" t="s">
+      <c r="R33" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S33" s="62" t="s">
@@ -17562,14 +18229,14 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="N34" s="60"/>
@@ -17590,15 +18257,15 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="1"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="K35" s="102"/>
       <c r="L35" s="73"/>
       <c r="M35" s="73"/>
       <c r="N35" s="74" t="s">
@@ -17621,19 +18288,19 @@
         <f>ROUND(_xlfn.NORM.S.INV(U35),3)</f>
         <v>-1.96</v>
       </c>
-      <c r="W35" s="101"/>
+      <c r="W35" s="97"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="K36" s="102"/>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
       <c r="N36" s="74" t="s">
@@ -17656,19 +18323,19 @@
         <f>IFERROR(ROUND(_xlfn.NORM.S.INV(U36),3),"")</f>
         <v>1.96</v>
       </c>
-      <c r="W36" s="101"/>
+      <c r="W36" s="97"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="K37" s="102"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
       <c r="N37" s="74" t="s">
@@ -17691,15 +18358,15 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="1"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="K38" s="107"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="K38" s="102"/>
       <c r="L38" s="73"/>
       <c r="M38" s="73"/>
       <c r="N38" s="74" t="s">
@@ -17708,7 +18375,7 @@
       <c r="O38" s="88">
         <v>0.05</v>
       </c>
-      <c r="P38" s="108">
+      <c r="P38" s="103">
         <f>O38</f>
         <v>0.05</v>
       </c>
@@ -17716,14 +18383,14 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
       <c r="M39" s="53"/>
@@ -17734,15 +18401,15 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="1"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="K40" s="95" t="s">
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="K40" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L40" s="62" t="s">
@@ -17750,7 +18417,7 @@
       </c>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
-      <c r="R40" s="95" t="s">
+      <c r="R40" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S40" s="62" t="s">
@@ -17762,20 +18429,20 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="1"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
-      <c r="N41" s="103" t="s">
+      <c r="N41" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="O41" s="104" t="s">
+      <c r="O41" s="100" t="s">
         <v>226</v>
       </c>
       <c r="P41" s="73"/>
@@ -17791,20 +18458,20 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="1"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
       <c r="K42" s="62"/>
       <c r="L42" s="53"/>
-      <c r="N42" s="103" t="s">
+      <c r="N42" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="104" t="s">
+      <c r="O42" s="100" t="s">
         <v>215</v>
       </c>
       <c r="P42" s="73"/>
@@ -17822,21 +18489,21 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="1"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="L43" s="106" t="s">
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="L43" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
       <c r="R43" s="53"/>
       <c r="S43" s="53"/>
       <c r="T43" s="2" t="s">
@@ -17885,7 +18552,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="K45" s="95" t="s">
+      <c r="K45" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L45" s="62" t="s">
@@ -17906,10 +18573,10 @@
       </c>
       <c r="K46" s="53"/>
       <c r="L46" s="53"/>
-      <c r="O46" s="97" t="s">
+      <c r="O46" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P46" s="102">
+      <c r="P46" s="98">
         <f>O38</f>
         <v>0.05</v>
       </c>
@@ -17922,7 +18589,7 @@
       <c r="B47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="96"/>
+      <c r="K47" s="93"/>
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
       <c r="N47" s="53"/>
@@ -17937,7 +18604,7 @@
       <c r="B48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="95" t="s">
+      <c r="K48" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L48" s="62" t="s">
@@ -17955,11 +18622,11 @@
       <c r="B49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M49" s="99"/>
-      <c r="O49" s="100" t="s">
+      <c r="M49" s="95"/>
+      <c r="O49" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P49" s="99" t="b">
+      <c r="P49" s="95" t="b">
         <f>AND(O37&lt;&gt;"",P37&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -17972,11 +18639,11 @@
         <v>193</v>
       </c>
       <c r="K50" s="62"/>
-      <c r="M50" s="99"/>
-      <c r="O50" s="100" t="s">
+      <c r="M50" s="95"/>
+      <c r="O50" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P50" s="99" t="b">
+      <c r="P50" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S50" t="s">
@@ -17990,7 +18657,7 @@
       <c r="O51" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P51" s="94" t="str">
+      <c r="P51" s="91" t="str">
         <f>IF(AND(P49,P50),"z-value","t-value")</f>
         <v>z-value</v>
       </c>
@@ -18014,7 +18681,7 @@
       </c>
     </row>
     <row r="55" spans="2:23">
-      <c r="R55" s="95" t="s">
+      <c r="R55" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S55" s="1" t="s">
@@ -18022,35 +18689,35 @@
       </c>
     </row>
     <row r="56" spans="2:23">
-      <c r="S56" s="98" t="str">
+      <c r="S56" s="132" t="str">
         <f>"We can"&amp;IF(U46,"","not")&amp;" conclude that "&amp;L43&amp;"."</f>
         <v>We cannot conclude that married and unmarried women differ in the amount of time per week spent on Facebook.</v>
       </c>
-      <c r="T56" s="98"/>
-      <c r="U56" s="98"/>
-      <c r="V56" s="98"/>
-      <c r="W56" s="98"/>
+      <c r="T56" s="132"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="132"/>
     </row>
     <row r="57" spans="2:23">
-      <c r="S57" s="98"/>
-      <c r="T57" s="98"/>
-      <c r="U57" s="98"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="S57" s="132"/>
+      <c r="T57" s="132"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="132"/>
+      <c r="W57" s="132"/>
     </row>
     <row r="58" spans="2:23">
-      <c r="S58" s="98"/>
-      <c r="T58" s="98"/>
-      <c r="U58" s="98"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
+      <c r="S58" s="132"/>
+      <c r="T58" s="132"/>
+      <c r="U58" s="132"/>
+      <c r="V58" s="132"/>
+      <c r="W58" s="132"/>
     </row>
     <row r="59" spans="2:23">
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
+      <c r="S59" s="132"/>
+      <c r="T59" s="132"/>
+      <c r="U59" s="132"/>
+      <c r="V59" s="132"/>
+      <c r="W59" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18087,31 +18754,31 @@
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="K2" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="K3" s="95" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="K3" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L3" s="62" t="s">
@@ -18121,7 +18788,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S3" s="62" t="s">
@@ -18130,14 +18797,14 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="N4" s="60"/>
@@ -18158,15 +18825,15 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74" t="s">
@@ -18189,19 +18856,19 @@
         <f>ROUND(_xlfn.NORM.S.INV(U5),3)</f>
         <v>-2.5760000000000001</v>
       </c>
-      <c r="W5" s="101"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="K6" s="107"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="74" t="s">
@@ -18224,7 +18891,7 @@
         <f>IFERROR(ROUND(_xlfn.NORM.S.INV(U6),3),"")</f>
         <v>2.5760000000000001</v>
       </c>
-      <c r="W6" s="101"/>
+      <c r="W6" s="97"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1"/>
@@ -18234,7 +18901,7 @@
       <c r="F7" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="107"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="74" t="s">
@@ -18266,7 +18933,7 @@
       <c r="F8" s="43">
         <v>40</v>
       </c>
-      <c r="K8" s="107"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="s">
@@ -18287,7 +18954,7 @@
       <c r="F9" s="43">
         <v>22.69</v>
       </c>
-      <c r="K9" s="107"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="73"/>
       <c r="M9" s="73"/>
       <c r="N9" s="74" t="s">
@@ -18296,7 +18963,7 @@
       <c r="O9" s="88">
         <v>0.01</v>
       </c>
-      <c r="P9" s="108">
+      <c r="P9" s="103">
         <f>O9</f>
         <v>0.01</v>
       </c>
@@ -18319,7 +18986,7 @@
       <c r="N10" s="53"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S10" s="62" t="s">
@@ -18331,7 +18998,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1"/>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L11" s="62" t="s">
@@ -18350,22 +19017,22 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="128" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="O12" s="104" t="str">
+      <c r="O12" s="100" t="str">
         <f>"xbar"&amp;O4&amp;" = "&amp;"xbar"&amp;P4</f>
         <v>xbarMen = xbarWomen</v>
       </c>
@@ -18384,20 +19051,20 @@
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
       <c r="K13" s="62"/>
       <c r="L13" s="53"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="O13" s="104" t="str">
+      <c r="O13" s="100" t="str">
         <f>"xbar"&amp;O4&amp;" != "&amp;"xbar"&amp;P4</f>
         <v>xbarMen != xbarWomen</v>
       </c>
@@ -18412,21 +19079,21 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="L14" s="106" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="L14" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
       <c r="T14" s="2" t="s">
         <v>292</v>
       </c>
@@ -18449,7 +19116,7 @@
       <c r="B16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K16" s="95" t="s">
+      <c r="K16" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L16" s="62" t="s">
@@ -18474,10 +19141,10 @@
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
-      <c r="O17" s="97" t="s">
+      <c r="O17" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="102">
+      <c r="P17" s="98">
         <f>O9</f>
         <v>0.01</v>
       </c>
@@ -18498,7 +19165,7 @@
       <c r="B18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="96"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
@@ -18519,7 +19186,7 @@
       <c r="B19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K19" s="95" t="s">
+      <c r="K19" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L19" s="62" t="s">
@@ -18538,11 +19205,11 @@
       <c r="B20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M20" s="99"/>
-      <c r="O20" s="100" t="s">
+      <c r="M20" s="95"/>
+      <c r="O20" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P20" s="99" t="b">
+      <c r="P20" s="95" t="b">
         <f>AND(O8&lt;&gt;"",P8&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -18556,11 +19223,11 @@
         <v>193</v>
       </c>
       <c r="K21" s="62"/>
-      <c r="M21" s="99"/>
-      <c r="O21" s="100" t="s">
+      <c r="M21" s="95"/>
+      <c r="O21" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="99" t="b">
+      <c r="P21" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S21" s="62" t="str">
@@ -18575,13 +19242,13 @@
       <c r="O22" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P22" s="94" t="str">
+      <c r="P22" s="91" t="str">
         <f>IF(AND(P20,P21),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
     </row>
     <row r="23" spans="2:23">
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -18605,69 +19272,69 @@
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="S26" s="98" t="str">
+      <c r="S26" s="132" t="str">
         <f>"We can"&amp;IF(U20,"","not")&amp;" conclude that "&amp;L14&amp;"."</f>
         <v>We cannot conclude that there is a difference in the mean number of times men and women order take-out dinners in a month.</v>
       </c>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
       <c r="R29" s="53"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
     </row>
     <row r="30" spans="2:23">
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
       <c r="R30" s="53"/>
     </row>
     <row r="31" spans="2:23">
       <c r="R31" s="53"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18707,31 +19374,31 @@
       <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
       <c r="K2" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="K3" s="95" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="K3" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L3" s="62" t="s">
@@ -18741,7 +19408,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S3" s="62" t="s">
@@ -18750,14 +19417,14 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="N4" s="60"/>
@@ -18778,15 +19445,15 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74" t="s">
@@ -18809,24 +19476,24 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="K6" s="107"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="O6" s="114">
+      <c r="O6" s="108">
         <v>12840</v>
       </c>
-      <c r="P6" s="114">
+      <c r="P6" s="108">
         <v>11045</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -18843,24 +19510,24 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="K7" s="107"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O7" s="108">
         <v>835</v>
       </c>
-      <c r="P7" s="114">
+      <c r="P7" s="108">
         <v>1545</v>
       </c>
       <c r="T7" s="2" t="s">
@@ -18874,19 +19541,19 @@
         <f>V6^2</f>
         <v>17586075156.25</v>
       </c>
-      <c r="W7" s="101"/>
+      <c r="W7" s="97"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="K8" s="107"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="s">
@@ -18895,7 +19562,7 @@
       <c r="O8" s="88">
         <v>0.05</v>
       </c>
-      <c r="P8" s="108">
+      <c r="P8" s="103">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -18910,18 +19577,18 @@
         <f>P5-1</f>
         <v>17</v>
       </c>
-      <c r="W8" s="101"/>
+      <c r="W8" s="97"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
@@ -18940,15 +19607,15 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="K10" s="95" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="K10" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L10" s="62" t="s">
@@ -18970,20 +19637,20 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="100" t="s">
         <v>237</v>
       </c>
       <c r="O11" s="73"/>
@@ -19002,20 +19669,20 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
       <c r="K12" s="62"/>
       <c r="L12" s="53"/>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="100" t="s">
         <v>236</v>
       </c>
       <c r="O12" s="73"/>
@@ -19030,33 +19697,33 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="L13" s="106" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="L13" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="R14" s="95" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="R14" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S14" s="62" t="s">
@@ -19068,15 +19735,15 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="K15" s="95" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="K15" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L15" s="62" t="s">
@@ -19091,26 +19758,26 @@
       <c r="T15" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U15" s="112">
+      <c r="U15" s="106">
         <f>O6-P6</f>
         <v>1795</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="102">
+      <c r="P16" s="98">
         <f>O8</f>
         <v>0.05</v>
       </c>
@@ -19127,15 +19794,15 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="K17" s="96"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
@@ -19157,9 +19824,9 @@
     </row>
     <row r="18" spans="1:23">
       <c r="B18" s="1"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="K18" s="95" t="s">
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="K18" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L18" s="62" t="s">
@@ -19185,11 +19852,11 @@
       <c r="F19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="O19" s="100" t="s">
+      <c r="M19" s="95"/>
+      <c r="O19" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="99" t="b">
+      <c r="P19" s="95" t="b">
         <f>AND(O7&lt;&gt;"",P7&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -19206,8 +19873,8 @@
         <v>234</v>
       </c>
       <c r="K20" s="62"/>
-      <c r="M20" s="99"/>
-      <c r="O20" s="100" t="s">
+      <c r="M20" s="95"/>
+      <c r="O20" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P20" s="84" t="b">
@@ -19223,16 +19890,16 @@
       <c r="E21" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="107">
         <v>21045</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="107">
         <v>22840</v>
       </c>
-      <c r="O21" s="100" t="s">
+      <c r="O21" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="99" t="b">
+      <c r="P21" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S21" s="62" t="str">
@@ -19244,24 +19911,24 @@
       <c r="E22" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="107">
         <v>12840</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="107">
         <v>11045</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="O23" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="94" t="str">
+      <c r="P23" s="91" t="str">
         <f>IF(AND(P19,P21,P20),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -19269,8 +19936,8 @@
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
       <c r="S24" t="s">
         <v>25</v>
       </c>
@@ -19280,51 +19947,51 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="S25" s="62" t="str">
         <f>IF(T24&lt;P16,"Reject H0", "Fail to Reject H0")</f>
         <v>Reject H0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="S26" s="111" t="str">
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="S26" s="133" t="str">
         <f>"We can"&amp;IF(U20,"","not")&amp;" conclude that "&amp;L13&amp;"."</f>
         <v>We can conclude that cost of private adoptions is higher.</v>
       </c>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="C28" s="110"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="43"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="C29" s="110"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="43"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
@@ -19338,31 +20005,31 @@
       <c r="A31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
       <c r="K31" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="K32" s="95" t="s">
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="K32" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L32" s="62" t="s">
@@ -19372,7 +20039,7 @@
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
-      <c r="R32" s="95" t="s">
+      <c r="R32" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S32" s="62" t="s">
@@ -19381,14 +20048,14 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
       <c r="K33" s="62"/>
       <c r="L33" s="62"/>
       <c r="N33" s="60"/>
@@ -19409,15 +20076,15 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="K34" s="102"/>
       <c r="L34" s="73"/>
       <c r="M34" s="73"/>
       <c r="N34" s="74" t="s">
@@ -19440,24 +20107,24 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="1"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="K35" s="102"/>
       <c r="L35" s="73"/>
       <c r="M35" s="73"/>
       <c r="N35" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="O35" s="126">
+      <c r="O35" s="119">
         <v>1.65</v>
       </c>
-      <c r="P35" s="127">
+      <c r="P35" s="120">
         <v>2.2000000000000002</v>
       </c>
       <c r="T35" s="2" t="s">
@@ -19474,24 +20141,24 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="K36" s="102"/>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
       <c r="N36" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O36" s="126">
+      <c r="O36" s="119">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P36" s="127">
+      <c r="P36" s="120">
         <v>0.3</v>
       </c>
       <c r="T36" s="2" t="s">
@@ -19505,19 +20172,19 @@
         <f>V35^2</f>
         <v>5.6249999999999998E-5</v>
       </c>
-      <c r="W36" s="101"/>
+      <c r="W36" s="97"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="K37" s="102"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
       <c r="N37" s="74" t="s">
@@ -19526,7 +20193,7 @@
       <c r="O37" s="88">
         <v>0.05</v>
       </c>
-      <c r="P37" s="108">
+      <c r="P37" s="103">
         <f>O37</f>
         <v>0.05</v>
       </c>
@@ -19541,18 +20208,18 @@
         <f>P34-1</f>
         <v>11</v>
       </c>
-      <c r="W37" s="101"/>
+      <c r="W37" s="97"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="1"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
       <c r="M38" s="53"/>
@@ -19571,15 +20238,15 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="K39" s="95" t="s">
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="K39" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L39" s="62" t="s">
@@ -19601,20 +20268,20 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="1"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="103" t="s">
+      <c r="M40" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="N40" s="104" t="str">
+      <c r="N40" s="100" t="str">
         <f>"xbar"&amp;O33&amp;" = "&amp;"xbar"&amp;P33</f>
         <v>xbarApple = xbarSpotify</v>
       </c>
@@ -19634,20 +20301,20 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="1"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
       <c r="K41" s="62"/>
       <c r="L41" s="53"/>
-      <c r="M41" s="103" t="s">
+      <c r="M41" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="N41" s="104" t="str">
+      <c r="N41" s="100" t="str">
         <f>"xbar"&amp;O33&amp;" != "&amp;"xbar"&amp;P33</f>
         <v>xbarApple != xbarSpotify</v>
       </c>
@@ -19663,33 +20330,33 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="1"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="L42" s="106" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="L42" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="1"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="R43" s="95" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="R43" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S43" s="62" t="s">
@@ -19701,15 +20368,15 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="1"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="K44" s="95" t="s">
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="K44" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L44" s="62" t="s">
@@ -19724,26 +20391,26 @@
       <c r="T44" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U44" s="112">
+      <c r="U44" s="106">
         <f>O35-P35</f>
         <v>-0.55000000000000027</v>
       </c>
     </row>
     <row r="45" spans="1:23">
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
       <c r="K45" s="53"/>
       <c r="L45" s="53"/>
-      <c r="O45" s="97" t="s">
+      <c r="O45" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P45" s="102">
+      <c r="P45" s="98">
         <f>O37</f>
         <v>0.05</v>
       </c>
@@ -19760,15 +20427,15 @@
       </c>
     </row>
     <row r="46" spans="1:23">
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="K46" s="96"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="K46" s="93"/>
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
       <c r="N46" s="53"/>
@@ -19790,9 +20457,9 @@
     </row>
     <row r="47" spans="1:23">
       <c r="B47" s="1"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="K47" s="95" t="s">
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="K47" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L47" s="62" t="s">
@@ -19816,11 +20483,11 @@
     </row>
     <row r="48" spans="1:23">
       <c r="F48" s="1"/>
-      <c r="M48" s="99"/>
-      <c r="O48" s="100" t="s">
+      <c r="M48" s="95"/>
+      <c r="O48" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P48" s="99" t="b">
+      <c r="P48" s="95" t="b">
         <f>AND(O36&lt;&gt;"",P36&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -19831,8 +20498,8 @@
     </row>
     <row r="49" spans="1:23">
       <c r="K49" s="62"/>
-      <c r="M49" s="99"/>
-      <c r="O49" s="100" t="s">
+      <c r="M49" s="95"/>
+      <c r="O49" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P49" s="84" t="b">
@@ -19846,12 +20513,12 @@
     </row>
     <row r="50" spans="1:23">
       <c r="E50" s="2"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="O50" s="100" t="s">
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="O50" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P50" s="99" t="b">
+      <c r="P50" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S50" s="62" t="str">
@@ -19861,20 +20528,20 @@
     </row>
     <row r="51" spans="1:23">
       <c r="E51" s="2"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
     </row>
     <row r="52" spans="1:23">
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
       <c r="O52" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P52" s="94" t="str">
+      <c r="P52" s="91" t="str">
         <f>IF(AND(P48,P50,P49),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R52" s="95" t="s">
+      <c r="R52" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -19882,8 +20549,8 @@
       </c>
     </row>
     <row r="53" spans="1:23">
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
       <c r="S53" t="s">
         <v>25</v>
       </c>
@@ -19899,35 +20566,35 @@
       </c>
     </row>
     <row r="55" spans="1:23">
-      <c r="S55" s="111" t="str">
+      <c r="S55" s="133" t="str">
         <f>"We can"&amp;IF(U49,"","not")&amp;" conclude that "&amp;L42&amp;"."</f>
         <v>We can conclude that there is a difference in the mean number of households picking either service.</v>
       </c>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
+      <c r="T55" s="133"/>
+      <c r="U55" s="133"/>
+      <c r="V55" s="133"/>
+      <c r="W55" s="133"/>
     </row>
     <row r="56" spans="1:23">
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="133"/>
+      <c r="V56" s="133"/>
+      <c r="W56" s="133"/>
     </row>
     <row r="57" spans="1:23">
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="111"/>
+      <c r="S57" s="133"/>
+      <c r="T57" s="133"/>
+      <c r="U57" s="133"/>
+      <c r="V57" s="133"/>
+      <c r="W57" s="133"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="S58" s="133"/>
+      <c r="T58" s="133"/>
+      <c r="U58" s="133"/>
+      <c r="V58" s="133"/>
+      <c r="W58" s="133"/>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="1" t="s">
@@ -19941,31 +20608,31 @@
       <c r="A61" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="128" t="s">
         <v>303</v>
       </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
       <c r="K61" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="1"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="K62" s="95" t="s">
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="K62" s="92" t="s">
         <v>196</v>
       </c>
       <c r="L62" s="62" t="s">
@@ -19975,7 +20642,7 @@
       <c r="N62" s="53"/>
       <c r="O62" s="53"/>
       <c r="P62" s="53"/>
-      <c r="R62" s="95" t="s">
+      <c r="R62" s="92" t="s">
         <v>144</v>
       </c>
       <c r="S62" s="62" t="s">
@@ -19984,14 +20651,14 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="1"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
       <c r="K63" s="62"/>
       <c r="L63" s="62"/>
       <c r="N63" s="60"/>
@@ -20014,15 +20681,15 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="1"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="K64" s="107"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="K64" s="102"/>
       <c r="L64" s="73"/>
       <c r="M64" s="73"/>
       <c r="N64" s="74" t="s">
@@ -20047,25 +20714,25 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="1"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="K65" s="107"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="K65" s="102"/>
       <c r="L65" s="73"/>
       <c r="M65" s="73"/>
       <c r="N65" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="O65" s="126">
+      <c r="O65" s="119">
         <f>AVERAGE(C74:C84)</f>
         <v>10.375</v>
       </c>
-      <c r="P65" s="126">
+      <c r="P65" s="119">
         <f>AVERAGE(D74:D84)</f>
         <v>5.6363636363636367</v>
       </c>
@@ -20083,25 +20750,25 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="1"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="K66" s="107"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="K66" s="102"/>
       <c r="L66" s="73"/>
       <c r="M66" s="73"/>
       <c r="N66" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O66" s="126">
+      <c r="O66" s="119">
         <f>_xlfn.STDEV.S(C74:C84)</f>
         <v>2.2638462845343543</v>
       </c>
-      <c r="P66" s="126">
+      <c r="P66" s="119">
         <f>_xlfn.STDEV.S(D74:D84)</f>
         <v>2.4605985967941737</v>
       </c>
@@ -20116,19 +20783,19 @@
         <f>V65^2</f>
         <v>0.30295471620790948</v>
       </c>
-      <c r="W66" s="101"/>
+      <c r="W66" s="97"/>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="1"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="K67" s="107"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="K67" s="102"/>
       <c r="L67" s="73"/>
       <c r="M67" s="73"/>
       <c r="N67" s="74" t="s">
@@ -20137,7 +20804,7 @@
       <c r="O67" s="88">
         <v>0.01</v>
       </c>
-      <c r="P67" s="108">
+      <c r="P67" s="103">
         <f>O67</f>
         <v>0.01</v>
       </c>
@@ -20152,18 +20819,18 @@
         <f>P64-1</f>
         <v>10</v>
       </c>
-      <c r="W67" s="101"/>
+      <c r="W67" s="97"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="1"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
       <c r="K68" s="53"/>
       <c r="L68" s="53"/>
       <c r="M68" s="53"/>
@@ -20182,15 +20849,15 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="1"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="K69" s="95" t="s">
+      <c r="B69" s="128"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="K69" s="92" t="s">
         <v>141</v>
       </c>
       <c r="L69" s="62" t="s">
@@ -20212,20 +20879,20 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="1"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="128"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
       <c r="K70" s="53"/>
       <c r="L70" s="53"/>
-      <c r="M70" s="103" t="s">
+      <c r="M70" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="N70" s="104" t="str">
+      <c r="N70" s="100" t="str">
         <f>"xbar"&amp;O63&amp;" &lt;= "&amp;"xbar"&amp;P63</f>
         <v>xbarunder 25 &lt;= xbarover 60</v>
       </c>
@@ -20245,20 +20912,20 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="1"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
       <c r="K71" s="62"/>
       <c r="L71" s="53"/>
-      <c r="M71" s="103" t="s">
+      <c r="M71" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="N71" s="104" t="str">
+      <c r="N71" s="100" t="str">
         <f>"xbar"&amp;O63&amp;" &gt; "&amp;"xbar"&amp;P63</f>
         <v>xbarunder 25 &gt; xbarover 60</v>
       </c>
@@ -20274,37 +20941,37 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="1"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="L72" s="106" t="s">
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="L72" s="131" t="s">
         <v>304</v>
       </c>
-      <c r="M72" s="106"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="106"/>
-      <c r="P72" s="106"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="128" t="s">
+      <c r="B73" s="90"/>
+      <c r="C73" s="121" t="s">
         <v>301</v>
       </c>
-      <c r="D73" s="128" t="s">
+      <c r="D73" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="R73" s="95" t="s">
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="R73" s="92" t="s">
         <v>217</v>
       </c>
       <c r="S73" s="62" t="s">
@@ -20316,19 +20983,19 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="1"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="128">
+      <c r="B74" s="90"/>
+      <c r="C74" s="121">
         <v>10</v>
       </c>
-      <c r="D74" s="128">
+      <c r="D74" s="121">
         <v>4</v>
       </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="K74" s="95" t="s">
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="K74" s="92" t="s">
         <v>142</v>
       </c>
       <c r="L74" s="62" t="s">
@@ -20343,30 +21010,30 @@
       <c r="T74" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U74" s="112">
+      <c r="U74" s="106">
         <f>O65-P65</f>
         <v>4.7386363636363633</v>
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="B75" s="93"/>
-      <c r="C75" s="128">
+      <c r="B75" s="90"/>
+      <c r="C75" s="121">
         <v>10</v>
       </c>
-      <c r="D75" s="128">
+      <c r="D75" s="121">
         <v>8</v>
       </c>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="93"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
       <c r="K75" s="53"/>
       <c r="L75" s="53"/>
-      <c r="O75" s="97" t="s">
+      <c r="O75" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="P75" s="102">
+      <c r="P75" s="98">
         <f>O67</f>
         <v>0.01</v>
       </c>
@@ -20383,19 +21050,19 @@
       </c>
     </row>
     <row r="76" spans="1:23">
-      <c r="B76" s="93"/>
-      <c r="C76" s="128">
+      <c r="B76" s="90"/>
+      <c r="C76" s="121">
         <v>11</v>
       </c>
-      <c r="D76" s="128">
+      <c r="D76" s="121">
         <v>7</v>
       </c>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="K76" s="96"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="K76" s="93"/>
       <c r="L76" s="53"/>
       <c r="M76" s="53"/>
       <c r="N76" s="53"/>
@@ -20417,13 +21084,13 @@
     </row>
     <row r="77" spans="1:23">
       <c r="B77" s="1"/>
-      <c r="C77" s="128">
+      <c r="C77" s="121">
         <v>15</v>
       </c>
-      <c r="D77" s="128">
+      <c r="D77" s="121">
         <v>7</v>
       </c>
-      <c r="K77" s="95" t="s">
+      <c r="K77" s="92" t="s">
         <v>143</v>
       </c>
       <c r="L77" s="62" t="s">
@@ -20446,18 +21113,18 @@
       <c r="V77" s="43"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="C78" s="128">
+      <c r="C78" s="121">
         <v>7</v>
       </c>
-      <c r="D78" s="128">
+      <c r="D78" s="121">
         <v>4</v>
       </c>
       <c r="F78" s="1"/>
-      <c r="M78" s="99"/>
-      <c r="O78" s="100" t="s">
+      <c r="M78" s="95"/>
+      <c r="O78" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="P78" s="99" t="b">
+      <c r="P78" s="95" t="b">
         <f>AND(O66&lt;&gt;"",P66&lt;&gt;"")</f>
         <v>1</v>
       </c>
@@ -20467,15 +21134,15 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="C79" s="128">
+      <c r="C79" s="121">
         <v>11</v>
       </c>
-      <c r="D79" s="128">
+      <c r="D79" s="121">
         <v>5</v>
       </c>
       <c r="K79" s="62"/>
-      <c r="M79" s="99"/>
-      <c r="O79" s="100" t="s">
+      <c r="M79" s="95"/>
+      <c r="O79" s="96" t="s">
         <v>235</v>
       </c>
       <c r="P79" s="84" t="b">
@@ -20488,19 +21155,19 @@
       </c>
     </row>
     <row r="80" spans="1:23">
-      <c r="C80" s="128">
+      <c r="C80" s="121">
         <v>10</v>
       </c>
-      <c r="D80" s="128">
+      <c r="D80" s="121">
         <v>1</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="113"/>
-      <c r="O80" s="100" t="s">
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="O80" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="P80" s="99" t="b">
+      <c r="P80" s="95" t="b">
         <v>1</v>
       </c>
       <c r="S80" s="62" t="str">
@@ -20509,29 +21176,29 @@
       </c>
     </row>
     <row r="81" spans="3:23">
-      <c r="C81" s="128">
+      <c r="C81" s="121">
         <v>9</v>
       </c>
-      <c r="D81" s="128">
+      <c r="D81" s="121">
         <v>7</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
     </row>
     <row r="82" spans="3:23">
-      <c r="C82" s="129"/>
-      <c r="D82" s="128">
+      <c r="C82" s="122"/>
+      <c r="D82" s="121">
         <v>4</v>
       </c>
       <c r="O82" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P82" s="94" t="str">
+      <c r="P82" s="91" t="str">
         <f>IF(AND(P78,P80,P79),"z-value","t-value")</f>
         <v>t-value</v>
       </c>
-      <c r="R82" s="95" t="s">
+      <c r="R82" s="92" t="s">
         <v>218</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -20539,8 +21206,8 @@
       </c>
     </row>
     <row r="83" spans="3:23">
-      <c r="C83" s="129"/>
-      <c r="D83" s="128">
+      <c r="C83" s="122"/>
+      <c r="D83" s="121">
         <v>10</v>
       </c>
       <c r="S83" t="s">
@@ -20553,7 +21220,7 @@
     </row>
     <row r="84" spans="3:23">
       <c r="C84" s="2"/>
-      <c r="D84" s="128">
+      <c r="D84" s="121">
         <v>5</v>
       </c>
       <c r="S84" s="62" t="str">
@@ -20562,47 +21229,47 @@
       </c>
     </row>
     <row r="85" spans="3:23">
-      <c r="S85" s="111" t="str">
+      <c r="S85" s="133" t="str">
         <f>"We can"&amp;IF(U79,"","not")&amp;" conclude that "&amp;L72&amp;"."</f>
         <v>We can conclude that younger customers use the ATMs more.</v>
       </c>
-      <c r="T85" s="111"/>
-      <c r="U85" s="111"/>
-      <c r="V85" s="111"/>
-      <c r="W85" s="111"/>
+      <c r="T85" s="133"/>
+      <c r="U85" s="133"/>
+      <c r="V85" s="133"/>
+      <c r="W85" s="133"/>
     </row>
     <row r="86" spans="3:23">
-      <c r="S86" s="111"/>
-      <c r="T86" s="111"/>
-      <c r="U86" s="111"/>
-      <c r="V86" s="111"/>
-      <c r="W86" s="111"/>
+      <c r="S86" s="133"/>
+      <c r="T86" s="133"/>
+      <c r="U86" s="133"/>
+      <c r="V86" s="133"/>
+      <c r="W86" s="133"/>
     </row>
     <row r="87" spans="3:23">
-      <c r="S87" s="111"/>
-      <c r="T87" s="111"/>
-      <c r="U87" s="111"/>
-      <c r="V87" s="111"/>
-      <c r="W87" s="111"/>
+      <c r="S87" s="133"/>
+      <c r="T87" s="133"/>
+      <c r="U87" s="133"/>
+      <c r="V87" s="133"/>
+      <c r="W87" s="133"/>
     </row>
     <row r="88" spans="3:23">
-      <c r="S88" s="111"/>
-      <c r="T88" s="111"/>
-      <c r="U88" s="111"/>
-      <c r="V88" s="111"/>
-      <c r="W88" s="111"/>
+      <c r="S88" s="133"/>
+      <c r="T88" s="133"/>
+      <c r="U88" s="133"/>
+      <c r="V88" s="133"/>
+      <c r="W88" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:I17"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="S26:W29"/>
     <mergeCell ref="L72:P72"/>
     <mergeCell ref="S85:W88"/>
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="S55:W58"/>
     <mergeCell ref="B31:I41"/>
     <mergeCell ref="B61:I71"/>
-    <mergeCell ref="B2:I17"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="S26:W29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
